--- a/rp/Excel/Interact_交互物表.xlsx
+++ b/rp/Excel/Interact_交互物表.xlsx
@@ -37,17 +37,10 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -148,11 +141,11 @@
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="5" fillId="0" fontId="1" numFmtId="164" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -479,35 +472,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="21" min="21" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="22" min="22" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="23" min="23" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="24" min="24" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="25" min="25" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="26" min="26" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="16"/>
   </cols>
   <sheetData>
-    <row customHeight="true" ht="21" r="1">
+    <row customHeight="true" ht="23" r="1">
       <c r="A1" s="1" t="str">
         <v>int</v>
       </c>
@@ -557,7 +544,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="2">
+    <row customHeight="true" ht="23" r="2">
       <c r="A2" s="1" t="str">
         <v>ID</v>
       </c>
@@ -579,16 +566,16 @@
       <c r="G2" s="1" t="str">
         <v>SitStance</v>
       </c>
-      <c r="H2" s="2" t="str">
+      <c r="H2" s="1" t="str">
         <v>BagId</v>
       </c>
-      <c r="I2" s="2" t="str">
+      <c r="I2" s="1" t="str">
         <v>NpcId</v>
       </c>
-      <c r="J2" s="2" t="str">
+      <c r="J2" s="1" t="str">
         <v>ShareId</v>
       </c>
-      <c r="K2" s="2" t="str">
+      <c r="K2" s="1" t="str">
         <v>NpcAnimationId</v>
       </c>
       <c r="L2" s="1"/>
@@ -607,7 +594,7 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row customHeight="true" ht="43" r="3">
+    <row customHeight="true" ht="46" r="3">
       <c r="A3" s="1" t="str">
         <v>唯一ID</v>
       </c>
@@ -649,7 +636,7 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="4">
+    <row customHeight="true" ht="23" r="4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -677,34 +664,34 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="5">
-      <c r="A5" s="3">
+    <row customHeight="true" ht="23" r="5">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="str">
-        <v>379F8E9E</v>
-      </c>
-      <c r="C5" s="3" t="str">
-        <v>0D0850BD</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3">
-        <v>110057</v>
+      <c r="B5" s="2" t="str">
+        <v>0CD59651</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <v>0325841C</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1">
+        <v>120767</v>
       </c>
       <c r="F5" s="1">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G5" s="1">
-        <v>122227</v>
-      </c>
-      <c r="H5" s="4">
-        <v>10006</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4" t="str">
-        <v>电吉他</v>
+        <v>151060</v>
+      </c>
+      <c r="H5" s="3">
+        <v>10106</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3" t="str">
+        <v>冲浪-电吉他</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -721,34 +708,34 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="6">
-      <c r="A6" s="1">
+    <row customHeight="true" ht="23" r="6">
+      <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="str">
-        <v>2555EDAA</v>
-      </c>
-      <c r="C6" s="1" t="str">
-        <v>3D215C3A</v>
-      </c>
-      <c r="D6" s="1"/>
+      <c r="B6" s="2" t="str">
+        <v>1BF26C07</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <v>10A33D41</v>
+      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="1">
-        <v>128699</v>
+        <v>120767</v>
       </c>
       <c r="F6" s="1">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G6" s="1">
-        <v>122231</v>
-      </c>
-      <c r="H6" s="4">
-        <v>10106</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4" t="str">
-        <v>电吉他</v>
+        <v>151060</v>
+      </c>
+      <c r="H6" s="3">
+        <v>10439</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3" t="str">
+        <v>冲浪-跳舞球</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -765,33 +752,35 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="7">
-      <c r="A7" s="3">
+    <row customHeight="true" ht="23" r="7">
+      <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="str">
-        <v>36A4512B</v>
-      </c>
-      <c r="C7" s="1" t="str">
-        <v>270D9130</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1">
-        <v>156849</v>
+      <c r="B7" s="2" t="str">
+        <v>112E61C1</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <v>26DBBEB9</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3">
+        <v>123030</v>
       </c>
       <c r="F7" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G7" s="1">
-        <v>122232</v>
-      </c>
-      <c r="H7" s="4">
-        <v>10016</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="1"/>
+        <v>151060</v>
+      </c>
+      <c r="H7" s="3">
+        <v>10106</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3" t="str">
+        <v>鱼冲浪-电吉他</v>
+      </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -807,33 +796,35 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="8">
-      <c r="A8" s="3">
+    <row customHeight="true" ht="23" r="8">
+      <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="str">
-        <v>0A2CF72B</v>
-      </c>
-      <c r="C8" s="1" t="str">
-        <v>38F1AE5C</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1">
-        <v>120699</v>
+      <c r="B8" s="2" t="str">
+        <v>3D757718</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <v>0D1267C4</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3">
+        <v>169463</v>
       </c>
       <c r="F8" s="1">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G8" s="1">
-        <v>15208</v>
-      </c>
-      <c r="H8" s="4">
-        <v>10016</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="1"/>
+        <v>151060</v>
+      </c>
+      <c r="H8" s="3">
+        <v>10106</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3" t="str">
+        <v>御剑-电吉他</v>
+      </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -849,30 +840,34 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="9">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="str">
-        <v>-</v>
-      </c>
-      <c r="C9" s="1" t="str">
-        <v>-</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1">
-        <v>120699</v>
+    <row customHeight="true" ht="23" r="9">
+      <c r="A9" s="2">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <v>2A86F403</v>
+      </c>
+      <c r="C9" s="2" t="str">
+        <v>3A0716FC</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3">
+        <v>167883</v>
       </c>
       <c r="F9" s="1">
-        <v>17</v>
-      </c>
-      <c r="G9" s="1" t="str">
-        <v>AssetId:15163</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1" t="str">
-        <v>上树1</v>
+        <v>23</v>
+      </c>
+      <c r="G9" s="1">
+        <v>151060</v>
+      </c>
+      <c r="H9" s="3">
+        <v>10106</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3" t="str">
+        <v>滑板-电吉他</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -889,30 +884,32 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="10">
-      <c r="A10" s="3"/>
-      <c r="B10" s="1" t="str">
-        <v>-</v>
-      </c>
-      <c r="C10" s="1" t="str">
-        <v>-</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1">
-        <v>120699</v>
+    <row customHeight="true" ht="23" r="10">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="str">
+        <v>379F8E9E</v>
+      </c>
+      <c r="C10" s="2" t="str">
+        <v>0D0850BD</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2">
+        <v>110057</v>
       </c>
       <c r="F10" s="1">
         <v>19</v>
       </c>
-      <c r="G10" s="1" t="str">
-        <v>AssetId:218260</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1" t="str">
-        <v>上树2</v>
+      <c r="G10" s="1">
+        <v>122227</v>
+      </c>
+      <c r="H10" s="3">
+        <v>10006</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3" t="str">
+        <v>电吉他</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -929,30 +926,32 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="11">
-      <c r="A11" s="3"/>
+    <row customHeight="true" ht="23" r="11">
+      <c r="A11" s="1"/>
       <c r="B11" s="1" t="str">
-        <v>-</v>
+        <v>2555EDAA</v>
       </c>
       <c r="C11" s="1" t="str">
-        <v>-</v>
+        <v>3D215C3A</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1">
-        <v>120699</v>
+        <v>128699</v>
       </c>
       <c r="F11" s="1">
-        <v>19</v>
-      </c>
-      <c r="G11" s="1" t="str">
-        <v>AssetId:29766</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1" t="str">
-        <v>上树3</v>
+        <v>17</v>
+      </c>
+      <c r="G11" s="1">
+        <v>122231</v>
+      </c>
+      <c r="H11" s="3">
+        <v>10106</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3" t="str">
+        <v>电吉他</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -969,31 +968,31 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="12">
-      <c r="A12" s="1"/>
+    <row customHeight="true" ht="23" r="12">
+      <c r="A12" s="2"/>
       <c r="B12" s="1" t="str">
-        <v>-</v>
+        <v>36A4512B</v>
       </c>
       <c r="C12" s="1" t="str">
-        <v>-</v>
+        <v>270D9130</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1">
-        <v>110057</v>
+        <v>156849</v>
       </c>
       <c r="F12" s="1">
-        <v>19</v>
-      </c>
-      <c r="G12" s="1" t="str">
-        <v>AssetId:15208</v>
-      </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1" t="str">
-        <v>划水1</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G12" s="1">
+        <v>122232</v>
+      </c>
+      <c r="H12" s="3">
+        <v>10016</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -1009,31 +1008,31 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="13">
-      <c r="A13" s="3"/>
+    <row customHeight="true" ht="23" r="13">
+      <c r="A13" s="2"/>
       <c r="B13" s="1" t="str">
-        <v>-</v>
+        <v>0A2CF72B</v>
       </c>
       <c r="C13" s="1" t="str">
-        <v>-</v>
+        <v>38F1AE5C</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1">
-        <v>110057</v>
+        <v>120699</v>
       </c>
       <c r="F13" s="1">
         <v>19</v>
       </c>
-      <c r="G13" s="1" t="str">
-        <v>AssetId:14587</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1" t="str">
-        <v>划水2</v>
-      </c>
+      <c r="G13" s="1">
+        <v>15208</v>
+      </c>
+      <c r="H13" s="3">
+        <v>10016</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -1049,8 +1048,8 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="14">
-      <c r="A14" s="3"/>
+    <row customHeight="true" ht="23" r="14">
+      <c r="A14" s="1"/>
       <c r="B14" s="1" t="str">
         <v>-</v>
       </c>
@@ -1059,20 +1058,20 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1">
-        <v>110057</v>
+        <v>120699</v>
       </c>
       <c r="F14" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G14" s="1" t="str">
-        <v>AssetId:180891</v>
+        <v>AssetId:15163</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1" t="str">
-        <v>搂着</v>
+        <v>上树1</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -1089,8 +1088,8 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="15">
-      <c r="A15" s="1"/>
+    <row customHeight="true" ht="23" r="15">
+      <c r="A15" s="2"/>
       <c r="B15" s="1" t="str">
         <v>-</v>
       </c>
@@ -1099,20 +1098,20 @@
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1">
-        <v>110057</v>
+        <v>120699</v>
       </c>
       <c r="F15" s="1">
         <v>19</v>
       </c>
       <c r="G15" s="1" t="str">
-        <v>AssetId:180882</v>
+        <v>AssetId:218260</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1" t="str">
-        <v>被搂</v>
+        <v>上树2</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -1129,8 +1128,8 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="16">
-      <c r="A16" s="3"/>
+    <row customHeight="true" ht="23" r="16">
+      <c r="A16" s="2"/>
       <c r="B16" s="1" t="str">
         <v>-</v>
       </c>
@@ -1138,21 +1137,21 @@
         <v>-</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="5" t="str">
-        <v>110057</v>
+      <c r="E16" s="1">
+        <v>120699</v>
       </c>
       <c r="F16" s="1">
         <v>19</v>
       </c>
       <c r="G16" s="1" t="str">
-        <v>AssetId:218260</v>
+        <v>AssetId:29766</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1" t="str">
-        <v>坐着</v>
+        <v>上树3</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -1169,8 +1168,8 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="17">
-      <c r="A17" s="3"/>
+    <row customHeight="true" ht="23" r="17">
+      <c r="A17" s="1"/>
       <c r="B17" s="1" t="str">
         <v>-</v>
       </c>
@@ -1179,9 +1178,9 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1">
-        <v>120699</v>
-      </c>
-      <c r="F17" s="2">
+        <v>110057</v>
+      </c>
+      <c r="F17" s="1">
         <v>19</v>
       </c>
       <c r="G17" s="1" t="str">
@@ -1192,7 +1191,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1" t="str">
-        <v>上树4</v>
+        <v>划水1</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -1209,8 +1208,8 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="18">
-      <c r="A18" s="1"/>
+    <row customHeight="true" ht="23" r="18">
+      <c r="A18" s="2"/>
       <c r="B18" s="1" t="str">
         <v>-</v>
       </c>
@@ -1219,20 +1218,20 @@
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1">
-        <v>120699</v>
-      </c>
-      <c r="F18" s="2">
+        <v>110057</v>
+      </c>
+      <c r="F18" s="1">
         <v>19</v>
       </c>
       <c r="G18" s="1" t="str">
-        <v>AssetId:15208</v>
+        <v>AssetId:14587</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1" t="str">
-        <v>上树5</v>
+        <v>划水2</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -1249,8 +1248,8 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="19">
-      <c r="A19" s="3"/>
+    <row customHeight="true" ht="23" r="19">
+      <c r="A19" s="2"/>
       <c r="B19" s="1" t="str">
         <v>-</v>
       </c>
@@ -1259,20 +1258,20 @@
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1">
-        <v>120699</v>
-      </c>
-      <c r="F19" s="2">
+        <v>110057</v>
+      </c>
+      <c r="F19" s="1">
         <v>19</v>
       </c>
       <c r="G19" s="1" t="str">
-        <v>AssetId:15208</v>
+        <v>AssetId:180891</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1" t="str">
-        <v>上树6</v>
+        <v>搂着</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -1289,8 +1288,8 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="20">
-      <c r="A20" s="3"/>
+    <row customHeight="true" ht="23" r="20">
+      <c r="A20" s="1"/>
       <c r="B20" s="1" t="str">
         <v>-</v>
       </c>
@@ -1299,20 +1298,20 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1">
-        <v>120699</v>
-      </c>
-      <c r="F20" s="2">
+        <v>110057</v>
+      </c>
+      <c r="F20" s="1">
         <v>19</v>
       </c>
       <c r="G20" s="1" t="str">
-        <v>AssetId:15208</v>
+        <v>AssetId:180882</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1" t="str">
-        <v>上树7</v>
+        <v>被搂</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -1329,8 +1328,8 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="21">
-      <c r="A21" s="1"/>
+    <row customHeight="true" ht="23" r="21">
+      <c r="A21" s="2"/>
       <c r="B21" s="1" t="str">
         <v>-</v>
       </c>
@@ -1338,21 +1337,21 @@
         <v>-</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="1">
+      <c r="E21" s="4" t="str">
         <v>110057</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <v>19</v>
       </c>
       <c r="G21" s="1" t="str">
-        <v>AssetId:15208</v>
+        <v>AssetId:218260</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1" t="str">
-        <v>划水3</v>
+        <v>坐着</v>
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -1369,8 +1368,8 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="22">
-      <c r="A22" s="3"/>
+    <row customHeight="true" ht="23" r="22">
+      <c r="A22" s="2"/>
       <c r="B22" s="1" t="str">
         <v>-</v>
       </c>
@@ -1379,9 +1378,9 @@
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1">
-        <v>110057</v>
-      </c>
-      <c r="F22" s="2">
+        <v>120699</v>
+      </c>
+      <c r="F22" s="1">
         <v>19</v>
       </c>
       <c r="G22" s="1" t="str">
@@ -1392,7 +1391,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1" t="str">
-        <v>划水4</v>
+        <v>上树4</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -1409,8 +1408,8 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="23">
-      <c r="A23" s="3"/>
+    <row customHeight="true" ht="23" r="23">
+      <c r="A23" s="1"/>
       <c r="B23" s="1" t="str">
         <v>-</v>
       </c>
@@ -1419,20 +1418,20 @@
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1">
-        <v>110057</v>
-      </c>
-      <c r="F23" s="2">
+        <v>120699</v>
+      </c>
+      <c r="F23" s="1">
         <v>19</v>
       </c>
       <c r="G23" s="1" t="str">
-        <v>AssetId:14565</v>
+        <v>AssetId:15208</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1" t="str">
-        <v>躺1</v>
+        <v>上树5</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -1449,8 +1448,8 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="24">
-      <c r="A24" s="1"/>
+    <row customHeight="true" ht="23" r="24">
+      <c r="A24" s="2"/>
       <c r="B24" s="1" t="str">
         <v>-</v>
       </c>
@@ -1459,20 +1458,20 @@
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1">
-        <v>168260</v>
+        <v>120699</v>
       </c>
       <c r="F24" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G24" s="1" t="str">
-        <v>AssetId:198588</v>
+        <v>AssetId:15208</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1" t="str">
-        <v>河边拍照1</v>
+        <v>上树6</v>
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -1489,8 +1488,8 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row customHeight="true" ht="21" r="25">
-      <c r="A25" s="3"/>
+    <row customHeight="true" ht="23" r="25">
+      <c r="A25" s="2"/>
       <c r="B25" s="1" t="str">
         <v>-</v>
       </c>
@@ -1499,20 +1498,20 @@
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1">
-        <v>168260</v>
+        <v>120699</v>
       </c>
       <c r="F25" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G25" s="1" t="str">
-        <v>AssetId:52984</v>
+        <v>AssetId:15208</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1" t="str">
-        <v>L</v>
+        <v>上树7</v>
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -1529,8 +1528,8 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26">
-      <c r="A26" s="3"/>
+    <row customHeight="true" ht="23" r="26">
+      <c r="A26" s="1"/>
       <c r="B26" s="1" t="str">
         <v>-</v>
       </c>
@@ -1539,20 +1538,20 @@
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1">
-        <v>168260</v>
+        <v>110057</v>
       </c>
       <c r="F26" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G26" s="1" t="str">
-        <v>AssetId:52984</v>
+        <v>AssetId:15208</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1" t="str">
-        <v>O</v>
+        <v>划水3</v>
       </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -1569,8 +1568,8 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27">
-      <c r="A27" s="3"/>
+    <row customHeight="true" ht="23" r="27">
+      <c r="A27" s="2"/>
       <c r="B27" s="1" t="str">
         <v>-</v>
       </c>
@@ -1579,20 +1578,20 @@
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1">
-        <v>168260</v>
+        <v>110057</v>
       </c>
       <c r="F27" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G27" s="1" t="str">
-        <v>AssetId:52984</v>
+        <v>AssetId:15208</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1" t="str">
-        <v>V</v>
+        <v>划水4</v>
       </c>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -1609,8 +1608,8 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28">
-      <c r="A28" s="3"/>
+    <row customHeight="true" ht="23" r="28">
+      <c r="A28" s="2"/>
       <c r="B28" s="1" t="str">
         <v>-</v>
       </c>
@@ -1619,20 +1618,20 @@
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1">
-        <v>168260</v>
+        <v>110057</v>
       </c>
       <c r="F28" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G28" s="1" t="str">
-        <v>AssetId:52984</v>
+        <v>AssetId:14565</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1" t="str">
-        <v>E</v>
+        <v>躺1</v>
       </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -1649,8 +1648,8 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29">
-      <c r="A29" s="3"/>
+    <row customHeight="true" ht="23" r="29">
+      <c r="A29" s="1"/>
       <c r="B29" s="1" t="str">
         <v>-</v>
       </c>
@@ -1659,20 +1658,20 @@
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1">
-        <v>120694</v>
+        <v>168260</v>
       </c>
       <c r="F29" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G29" s="1" t="str">
-        <v>AssetId:14654</v>
+        <v>AssetId:198588</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1" t="str">
-        <v>躺2</v>
+        <v>河边拍照1</v>
       </c>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
@@ -1689,8 +1688,8 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30">
-      <c r="A30" s="3"/>
+    <row customHeight="true" ht="23" r="30">
+      <c r="A30" s="2"/>
       <c r="B30" s="1" t="str">
         <v>-</v>
       </c>
@@ -1699,20 +1698,20 @@
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1">
-        <v>156858</v>
+        <v>168260</v>
       </c>
       <c r="F30" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G30" s="1" t="str">
-        <v>AssetId:181138</v>
+        <v>AssetId:52984</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1" t="str">
-        <v>躺3</v>
+        <v>L</v>
       </c>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
@@ -1729,8 +1728,8 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31">
-      <c r="A31" s="3"/>
+    <row customHeight="true" ht="21" r="31">
+      <c r="A31" s="2"/>
       <c r="B31" s="1" t="str">
         <v>-</v>
       </c>
@@ -1739,20 +1738,20 @@
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
-        <v>120694</v>
+        <v>168260</v>
       </c>
       <c r="F31" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G31" s="1" t="str">
-        <v>AssetId:175980</v>
+        <v>AssetId:52984</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1" t="str">
-        <v>躺4</v>
+        <v>O</v>
       </c>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -1769,8 +1768,8 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32">
-      <c r="A32" s="3"/>
+    <row customHeight="true" ht="21" r="32">
+      <c r="A32" s="2"/>
       <c r="B32" s="1" t="str">
         <v>-</v>
       </c>
@@ -1782,17 +1781,17 @@
         <v>168260</v>
       </c>
       <c r="F32" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G32" s="1" t="str">
-        <v>AssetId:14600</v>
+        <v>AssetId:52984</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1" t="str">
-        <v>河边拍照2</v>
+        <v>V</v>
       </c>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
@@ -1809,8 +1808,8 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33">
-      <c r="A33" s="3"/>
+    <row customHeight="true" ht="21" r="33">
+      <c r="A33" s="2"/>
       <c r="B33" s="1" t="str">
         <v>-</v>
       </c>
@@ -1822,17 +1821,17 @@
         <v>168260</v>
       </c>
       <c r="F33" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G33" s="1" t="str">
-        <v>AssetId:198595</v>
+        <v>AssetId:52984</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1" t="str">
-        <v>河边拍照3</v>
+        <v>E</v>
       </c>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
@@ -1849,8 +1848,8 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34">
-      <c r="A34" s="3"/>
+    <row customHeight="true" ht="21" r="34">
+      <c r="A34" s="2"/>
       <c r="B34" s="1" t="str">
         <v>-</v>
       </c>
@@ -1859,20 +1858,20 @@
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1">
-        <v>168260</v>
+        <v>120694</v>
       </c>
       <c r="F34" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G34" s="1" t="str">
-        <v>AssetId:14513</v>
+        <v>AssetId:14654</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1" t="str">
-        <v>河边拍照4</v>
+        <v>躺2</v>
       </c>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
@@ -1889,8 +1888,8 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35">
-      <c r="A35" s="3"/>
+    <row customHeight="true" ht="21" r="35">
+      <c r="A35" s="2"/>
       <c r="B35" s="1" t="str">
         <v>-</v>
       </c>
@@ -1899,20 +1898,20 @@
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1">
-        <v>168260</v>
+        <v>156858</v>
       </c>
       <c r="F35" s="1">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G35" s="1" t="str">
-        <v>AssetId:198587</v>
+        <v>AssetId:181138</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1" t="str">
-        <v>河边拍照5</v>
+        <v>躺3</v>
       </c>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
@@ -1929,8 +1928,8 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36">
-      <c r="A36" s="3"/>
+    <row customHeight="true" ht="21" r="36">
+      <c r="A36" s="2"/>
       <c r="B36" s="1" t="str">
         <v>-</v>
       </c>
@@ -1939,20 +1938,20 @@
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1">
-        <v>120699</v>
-      </c>
-      <c r="F36" s="2">
-        <v>19</v>
+        <v>120694</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
       </c>
       <c r="G36" s="1" t="str">
-        <v>AssetId:15208</v>
+        <v>AssetId:175980</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1" t="str">
-        <v>上树8</v>
+        <v>躺4</v>
       </c>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
@@ -1969,8 +1968,8 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37">
-      <c r="A37" s="3"/>
+    <row customHeight="true" ht="21" r="37">
+      <c r="A37" s="2"/>
       <c r="B37" s="1" t="str">
         <v>-</v>
       </c>
@@ -1979,20 +1978,20 @@
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1">
-        <v>120699</v>
-      </c>
-      <c r="F37" s="2">
-        <v>19</v>
+        <v>168260</v>
+      </c>
+      <c r="F37" s="1">
+        <v>18</v>
       </c>
       <c r="G37" s="1" t="str">
-        <v>AssetId:15208</v>
+        <v>AssetId:14600</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1" t="str">
-        <v>上树9</v>
+        <v>河边拍照2</v>
       </c>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
@@ -2009,8 +2008,8 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38">
-      <c r="A38" s="3"/>
+    <row customHeight="true" ht="21" r="38">
+      <c r="A38" s="2"/>
       <c r="B38" s="1" t="str">
         <v>-</v>
       </c>
@@ -2019,20 +2018,20 @@
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1">
-        <v>110057</v>
-      </c>
-      <c r="F38" s="2">
-        <v>19</v>
+        <v>168260</v>
+      </c>
+      <c r="F38" s="1">
+        <v>18</v>
       </c>
       <c r="G38" s="1" t="str">
-        <v>AssetId:182947</v>
+        <v>AssetId:198595</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1" t="str">
-        <v>凳子1</v>
+        <v>河边拍照3</v>
       </c>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
@@ -2049,8 +2048,8 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39">
-      <c r="A39" s="3"/>
+    <row customHeight="true" ht="21" r="39">
+      <c r="A39" s="2"/>
       <c r="B39" s="1" t="str">
         <v>-</v>
       </c>
@@ -2059,20 +2058,20 @@
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1">
-        <v>110057</v>
-      </c>
-      <c r="F39" s="2">
-        <v>19</v>
+        <v>168260</v>
+      </c>
+      <c r="F39" s="1">
+        <v>17</v>
       </c>
       <c r="G39" s="1" t="str">
-        <v>AssetId:217870</v>
+        <v>AssetId:14513</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1" t="str">
-        <v>凳子2</v>
+        <v>河边拍照4</v>
       </c>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
@@ -2089,8 +2088,8 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40">
-      <c r="A40" s="3"/>
+    <row customHeight="true" ht="21" r="40">
+      <c r="A40" s="2"/>
       <c r="B40" s="1" t="str">
         <v>-</v>
       </c>
@@ -2099,20 +2098,20 @@
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1">
-        <v>110057</v>
-      </c>
-      <c r="F40" s="2">
-        <v>19</v>
+        <v>168260</v>
+      </c>
+      <c r="F40" s="1">
+        <v>18</v>
       </c>
       <c r="G40" s="1" t="str">
-        <v>AssetId:35447</v>
+        <v>AssetId:198587</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1" t="str">
-        <v>凳子3</v>
+        <v>河边拍照5</v>
       </c>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
@@ -2129,22 +2128,30 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41">
-      <c r="A41" s="3"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
+    <row customHeight="true" ht="21" r="41">
+      <c r="A41" s="2"/>
+      <c r="B41" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="C41" s="1" t="str">
+        <v>-</v>
+      </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1">
-        <v>110111</v>
-      </c>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
+        <v>120699</v>
+      </c>
+      <c r="F41" s="1">
+        <v>19</v>
+      </c>
+      <c r="G41" s="1" t="str">
+        <v>AssetId:15208</v>
+      </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1" t="str">
-        <v>盘子</v>
+        <v>上树8</v>
       </c>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
@@ -2161,8 +2168,8 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42">
-      <c r="A42" s="3"/>
+    <row customHeight="true" ht="21" r="42">
+      <c r="A42" s="2"/>
       <c r="B42" s="1" t="str">
         <v>-</v>
       </c>
@@ -2171,20 +2178,20 @@
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1">
-        <v>110057</v>
-      </c>
-      <c r="F42" s="2">
+        <v>120699</v>
+      </c>
+      <c r="F42" s="1">
         <v>19</v>
       </c>
       <c r="G42" s="1" t="str">
-        <v>AssetId:29741</v>
+        <v>AssetId:15208</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1" t="str">
-        <v>椅子-咖啡</v>
+        <v>上树9</v>
       </c>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
@@ -2201,8 +2208,8 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43">
-      <c r="A43" s="3"/>
+    <row customHeight="true" ht="21" r="43">
+      <c r="A43" s="2"/>
       <c r="B43" s="1" t="str">
         <v>-</v>
       </c>
@@ -2213,18 +2220,18 @@
       <c r="E43" s="1">
         <v>110057</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="1">
         <v>19</v>
       </c>
       <c r="G43" s="1" t="str">
-        <v>AssetId:35447</v>
+        <v>AssetId:182947</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1" t="str">
-        <v>长椅-坐</v>
+        <v>凳子1</v>
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
@@ -2241,8 +2248,8 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44">
-      <c r="A44" s="3"/>
+    <row customHeight="true" ht="21" r="44">
+      <c r="A44" s="2"/>
       <c r="B44" s="1" t="str">
         <v>-</v>
       </c>
@@ -2251,20 +2258,20 @@
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1">
-        <v>158418</v>
+        <v>110057</v>
       </c>
       <c r="F44" s="1">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G44" s="1" t="str">
-        <v>AssetId:15155</v>
+        <v>AssetId:217870</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1" t="str">
-        <v>长椅-躺</v>
+        <v>凳子2</v>
       </c>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
@@ -2281,8 +2288,8 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45">
-      <c r="A45" s="3"/>
+    <row customHeight="true" ht="21" r="45">
+      <c r="A45" s="2"/>
       <c r="B45" s="1" t="str">
         <v>-</v>
       </c>
@@ -2293,18 +2300,18 @@
       <c r="E45" s="1">
         <v>110057</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="1">
         <v>19</v>
       </c>
       <c r="G45" s="1" t="str">
-        <v>AssetId:29741</v>
+        <v>AssetId:35447</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1" t="str">
-        <v>椅子-咖啡</v>
+        <v>凳子3</v>
       </c>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
@@ -2321,30 +2328,22 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46">
-      <c r="A46" s="3"/>
-      <c r="B46" s="1" t="str">
-        <v>-</v>
-      </c>
-      <c r="C46" s="1" t="str">
-        <v>-</v>
-      </c>
+    <row customHeight="true" ht="21" r="46">
+      <c r="A46" s="2"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1">
-        <v>110057</v>
-      </c>
-      <c r="F46" s="2">
-        <v>19</v>
-      </c>
-      <c r="G46" s="1" t="str">
-        <v>AssetId:29741</v>
-      </c>
+        <v>110111</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
-      <c r="L46" s="2" t="str">
-        <v>椅子-咖啡</v>
+      <c r="L46" s="1" t="str">
+        <v>盘子</v>
       </c>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
@@ -2361,8 +2360,8 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47">
-      <c r="A47" s="3"/>
+    <row customHeight="true" ht="21" r="47">
+      <c r="A47" s="2"/>
       <c r="B47" s="1" t="str">
         <v>-</v>
       </c>
@@ -2373,7 +2372,7 @@
       <c r="E47" s="1">
         <v>110057</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="1">
         <v>19</v>
       </c>
       <c r="G47" s="1" t="str">
@@ -2383,7 +2382,7 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
-      <c r="L47" s="2" t="str">
+      <c r="L47" s="1" t="str">
         <v>椅子-咖啡</v>
       </c>
       <c r="M47" s="1"/>
@@ -2401,8 +2400,8 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48">
-      <c r="A48" s="3"/>
+    <row customHeight="true" ht="21" r="48">
+      <c r="A48" s="2"/>
       <c r="B48" s="1" t="str">
         <v>-</v>
       </c>
@@ -2413,18 +2412,18 @@
       <c r="E48" s="1">
         <v>110057</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="1">
         <v>19</v>
       </c>
       <c r="G48" s="1" t="str">
-        <v>AssetId:218259</v>
+        <v>AssetId:35447</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
-      <c r="L48" s="2" t="str">
-        <v>椅子-咖啡</v>
+      <c r="L48" s="1" t="str">
+        <v>长椅-坐</v>
       </c>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
@@ -2441,8 +2440,8 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49">
-      <c r="A49" s="3"/>
+    <row customHeight="true" ht="21" r="49">
+      <c r="A49" s="2"/>
       <c r="B49" s="1" t="str">
         <v>-</v>
       </c>
@@ -2451,20 +2450,20 @@
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1">
-        <v>110057</v>
-      </c>
-      <c r="F49" s="2">
-        <v>19</v>
+        <v>158418</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
       </c>
       <c r="G49" s="1" t="str">
-        <v>AssetId:218259</v>
+        <v>AssetId:15155</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1" t="str">
-        <v>椅子-樱花枝</v>
+        <v>长椅-躺</v>
       </c>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
@@ -2481,8 +2480,8 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50">
-      <c r="A50" s="3"/>
+    <row customHeight="true" ht="21" r="50">
+      <c r="A50" s="2"/>
       <c r="B50" s="1" t="str">
         <v>-</v>
       </c>
@@ -2493,18 +2492,18 @@
       <c r="E50" s="1">
         <v>110057</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="1">
         <v>19</v>
       </c>
       <c r="G50" s="1" t="str">
-        <v>AssetId:218259</v>
+        <v>AssetId:29741</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1" t="str">
-        <v>椅子-樱花枝</v>
+        <v>椅子-咖啡</v>
       </c>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
@@ -2521,8 +2520,8 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51">
-      <c r="A51" s="3"/>
+    <row customHeight="true" ht="21" r="51">
+      <c r="A51" s="2"/>
       <c r="B51" s="1" t="str">
         <v>-</v>
       </c>
@@ -2531,20 +2530,20 @@
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1">
-        <v>120727</v>
-      </c>
-      <c r="F51" s="2">
+        <v>110057</v>
+      </c>
+      <c r="F51" s="1">
         <v>19</v>
       </c>
       <c r="G51" s="1" t="str">
-        <v>AssetId:192126</v>
+        <v>AssetId:29741</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1" t="str">
-        <v>坐地上-吉他</v>
+        <v>椅子-咖啡</v>
       </c>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
@@ -2561,8 +2560,8 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52">
-      <c r="A52" s="3"/>
+    <row customHeight="true" ht="21" r="52">
+      <c r="A52" s="2"/>
       <c r="B52" s="1" t="str">
         <v>-</v>
       </c>
@@ -2571,20 +2570,20 @@
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1">
-        <v>128699</v>
+        <v>110057</v>
       </c>
       <c r="F52" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G52" s="1" t="str">
-        <v>AssetId:122231</v>
+        <v>AssetId:29741</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1" t="str">
-        <v>被壁咚</v>
+        <v>椅子-咖啡</v>
       </c>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
@@ -2601,8 +2600,8 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53">
-      <c r="A53" s="3"/>
+    <row customHeight="true" ht="21" r="53">
+      <c r="A53" s="2"/>
       <c r="B53" s="1" t="str">
         <v>-</v>
       </c>
@@ -2611,20 +2610,20 @@
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1">
-        <v>156849</v>
+        <v>110057</v>
       </c>
       <c r="F53" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G53" s="1" t="str">
-        <v>AssetId:122232</v>
+        <v>AssetId:218259</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1" t="str">
-        <v>壁咚</v>
+        <v>椅子-咖啡</v>
       </c>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
@@ -2641,8 +2640,8 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54">
-      <c r="A54" s="3"/>
+    <row customHeight="true" ht="21" r="54">
+      <c r="A54" s="2"/>
       <c r="B54" s="1" t="str">
         <v>-</v>
       </c>
@@ -2654,17 +2653,17 @@
         <v>110057</v>
       </c>
       <c r="F54" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G54" s="1" t="str">
-        <v>AssetId:198592</v>
+        <v>AssetId:218259</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1" t="str">
-        <v>兔耳朵摆POSE1</v>
+        <v>椅子-樱花枝</v>
       </c>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
@@ -2681,8 +2680,8 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55">
-      <c r="A55" s="3"/>
+    <row customHeight="true" ht="21" r="55">
+      <c r="A55" s="2"/>
       <c r="B55" s="1" t="str">
         <v>-</v>
       </c>
@@ -2691,20 +2690,20 @@
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1">
-        <v>120699</v>
-      </c>
-      <c r="F55" s="2">
+        <v>110057</v>
+      </c>
+      <c r="F55" s="1">
         <v>19</v>
       </c>
       <c r="G55" s="1" t="str">
-        <v>AssetId:15208</v>
+        <v>AssetId:218259</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1" t="str">
-        <v>小白兔玩偶</v>
+        <v>椅子-樱花枝</v>
       </c>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
@@ -2721,8 +2720,8 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56">
-      <c r="A56" s="3"/>
+    <row customHeight="true" ht="21" r="56">
+      <c r="A56" s="2"/>
       <c r="B56" s="1" t="str">
         <v>-</v>
       </c>
@@ -2731,20 +2730,20 @@
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1">
-        <v>110057</v>
-      </c>
-      <c r="F56" s="2">
+        <v>120727</v>
+      </c>
+      <c r="F56" s="1">
         <v>19</v>
       </c>
       <c r="G56" s="1" t="str">
-        <v>AssetId:180882</v>
+        <v>AssetId:192126</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1" t="str">
-        <v>兔耳朵摆POSE2</v>
+        <v>坐地上-吉他</v>
       </c>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
@@ -2761,8 +2760,8 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57">
-      <c r="A57" s="3"/>
+    <row customHeight="true" ht="21" r="57">
+      <c r="A57" s="2"/>
       <c r="B57" s="1" t="str">
         <v>-</v>
       </c>
@@ -2771,20 +2770,20 @@
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1">
-        <v>110057</v>
-      </c>
-      <c r="F57" s="2">
-        <v>19</v>
+        <v>128699</v>
+      </c>
+      <c r="F57" s="1">
+        <v>18</v>
       </c>
       <c r="G57" s="1" t="str">
-        <v>AssetId:14645</v>
+        <v>AssetId:122231</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1" t="str">
-        <v>荧光棒1</v>
+        <v>被壁咚</v>
       </c>
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
@@ -2801,8 +2800,8 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58">
-      <c r="A58" s="3"/>
+    <row customHeight="true" ht="21" r="58">
+      <c r="A58" s="2"/>
       <c r="B58" s="1" t="str">
         <v>-</v>
       </c>
@@ -2811,20 +2810,20 @@
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1">
-        <v>110057</v>
-      </c>
-      <c r="F58" s="2">
-        <v>19</v>
+        <v>156849</v>
+      </c>
+      <c r="F58" s="1">
+        <v>18</v>
       </c>
       <c r="G58" s="1" t="str">
-        <v>AssetId:192126</v>
+        <v>AssetId:122232</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1" t="str">
-        <v>荧光棒2</v>
+        <v>壁咚</v>
       </c>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
@@ -2841,8 +2840,8 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
     </row>
-    <row r="59">
-      <c r="A59" s="3"/>
+    <row customHeight="true" ht="21" r="59">
+      <c r="A59" s="2"/>
       <c r="B59" s="1" t="str">
         <v>-</v>
       </c>
@@ -2853,18 +2852,18 @@
       <c r="E59" s="1">
         <v>110057</v>
       </c>
-      <c r="F59" s="2">
-        <v>19</v>
+      <c r="F59" s="1">
+        <v>17</v>
       </c>
       <c r="G59" s="1" t="str">
-        <v>AssetId:14689</v>
+        <v>AssetId:198592</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1" t="str">
-        <v>荧光棒3</v>
+        <v>兔耳朵摆POSE1</v>
       </c>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
@@ -2881,8 +2880,8 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60">
-      <c r="A60" s="3"/>
+    <row customHeight="true" ht="21" r="60">
+      <c r="A60" s="2"/>
       <c r="B60" s="1" t="str">
         <v>-</v>
       </c>
@@ -2891,20 +2890,20 @@
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1">
-        <v>110057</v>
-      </c>
-      <c r="F60" s="2">
+        <v>120699</v>
+      </c>
+      <c r="F60" s="1">
         <v>19</v>
       </c>
       <c r="G60" s="1" t="str">
-        <v>AssetId:14587</v>
+        <v>AssetId:15208</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1" t="str">
-        <v>荧光棒4</v>
+        <v>小白兔玩偶</v>
       </c>
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
@@ -2921,8 +2920,8 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61">
-      <c r="A61" s="3"/>
+    <row customHeight="true" ht="21" r="61">
+      <c r="A61" s="2"/>
       <c r="B61" s="1" t="str">
         <v>-</v>
       </c>
@@ -2933,18 +2932,18 @@
       <c r="E61" s="1">
         <v>110057</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61" s="1">
         <v>19</v>
       </c>
       <c r="G61" s="1" t="str">
-        <v>AssetId:14565</v>
+        <v>AssetId:180882</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1" t="str">
-        <v>荧光棒5</v>
+        <v>兔耳朵摆POSE2</v>
       </c>
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
@@ -2961,8 +2960,8 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62">
-      <c r="A62" s="3"/>
+    <row customHeight="true" ht="21" r="62">
+      <c r="A62" s="2"/>
       <c r="B62" s="1" t="str">
         <v>-</v>
       </c>
@@ -2973,7 +2972,7 @@
       <c r="E62" s="1">
         <v>110057</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F62" s="1">
         <v>19</v>
       </c>
       <c r="G62" s="1" t="str">
@@ -2984,7 +2983,7 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1" t="str">
-        <v>野餐-男</v>
+        <v>荧光棒1</v>
       </c>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
@@ -3001,8 +3000,8 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
     </row>
-    <row r="63">
-      <c r="A63" s="3"/>
+    <row customHeight="true" ht="21" r="63">
+      <c r="A63" s="2"/>
       <c r="B63" s="1" t="str">
         <v>-</v>
       </c>
@@ -3013,18 +3012,18 @@
       <c r="E63" s="1">
         <v>110057</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63" s="1">
         <v>19</v>
       </c>
       <c r="G63" s="1" t="str">
-        <v>AssetId:14689</v>
+        <v>AssetId:192126</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
-      <c r="L63" s="2" t="str">
-        <v>野餐-女</v>
+      <c r="L63" s="1" t="str">
+        <v>荧光棒2</v>
       </c>
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
@@ -3041,8 +3040,8 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64">
-      <c r="A64" s="3"/>
+    <row customHeight="true" ht="21" r="64">
+      <c r="A64" s="2"/>
       <c r="B64" s="1" t="str">
         <v>-</v>
       </c>
@@ -3051,20 +3050,20 @@
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1">
-        <v>146643</v>
-      </c>
-      <c r="F64" s="2">
+        <v>110057</v>
+      </c>
+      <c r="F64" s="1">
         <v>19</v>
       </c>
       <c r="G64" s="1" t="str">
-        <v>AssetId:29741</v>
+        <v>AssetId:14689</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1" t="str">
-        <v>拍照-心-左</v>
+        <v>荧光棒3</v>
       </c>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
@@ -3081,8 +3080,8 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
     </row>
-    <row r="65">
-      <c r="A65" s="3"/>
+    <row customHeight="true" ht="21" r="65">
+      <c r="A65" s="2"/>
       <c r="B65" s="1" t="str">
         <v>-</v>
       </c>
@@ -3091,20 +3090,20 @@
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1">
-        <v>146643</v>
-      </c>
-      <c r="F65" s="2">
+        <v>110057</v>
+      </c>
+      <c r="F65" s="1">
         <v>19</v>
       </c>
       <c r="G65" s="1" t="str">
-        <v>AssetId:35447</v>
+        <v>AssetId:14587</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
-      <c r="L65" s="2" t="str">
-        <v>拍照-心-右</v>
+      <c r="L65" s="1" t="str">
+        <v>荧光棒4</v>
       </c>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
@@ -3121,8 +3120,8 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
     </row>
-    <row r="66">
-      <c r="A66" s="3"/>
+    <row customHeight="true" ht="21" r="66">
+      <c r="A66" s="2"/>
       <c r="B66" s="1" t="str">
         <v>-</v>
       </c>
@@ -3133,18 +3132,18 @@
       <c r="E66" s="1">
         <v>110057</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F66" s="1">
         <v>19</v>
       </c>
       <c r="G66" s="1" t="str">
-        <v>AssetId:29762</v>
+        <v>AssetId:14565</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1" t="str">
-        <v>椅子坐樱花枝1</v>
+        <v>荧光棒5</v>
       </c>
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
@@ -3161,8 +3160,8 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
     </row>
-    <row r="67">
-      <c r="A67" s="3"/>
+    <row customHeight="true" ht="21" r="67">
+      <c r="A67" s="2"/>
       <c r="B67" s="1" t="str">
         <v>-</v>
       </c>
@@ -3173,18 +3172,18 @@
       <c r="E67" s="1">
         <v>110057</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F67" s="1">
         <v>19</v>
       </c>
       <c r="G67" s="1" t="str">
-        <v>AssetId:29762</v>
+        <v>AssetId:14645</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1" t="str">
-        <v>椅子坐樱花枝2</v>
+        <v>野餐-男</v>
       </c>
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
@@ -3201,8 +3200,8 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
     </row>
-    <row r="68">
-      <c r="A68" s="3"/>
+    <row customHeight="true" ht="21" r="68">
+      <c r="A68" s="2"/>
       <c r="B68" s="1" t="str">
         <v>-</v>
       </c>
@@ -3213,18 +3212,18 @@
       <c r="E68" s="1">
         <v>110057</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F68" s="1">
         <v>19</v>
       </c>
       <c r="G68" s="1" t="str">
-        <v>AssetId:29762</v>
+        <v>AssetId:14689</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1" t="str">
-        <v>椅子坐樱花枝3</v>
+        <v>野餐-女</v>
       </c>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
@@ -3241,8 +3240,8 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
     </row>
-    <row r="69">
-      <c r="A69" s="3"/>
+    <row customHeight="true" ht="21" r="69">
+      <c r="A69" s="2"/>
       <c r="B69" s="1" t="str">
         <v>-</v>
       </c>
@@ -3251,20 +3250,20 @@
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1">
-        <v>158414</v>
+        <v>146643</v>
       </c>
       <c r="F69" s="1">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G69" s="1" t="str">
-        <v>AssetId:14654</v>
+        <v>AssetId:29741</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1" t="str">
-        <v>长椅躺</v>
+        <v>拍照-心-左</v>
       </c>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
@@ -3281,8 +3280,8 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
     </row>
-    <row r="70">
-      <c r="A70" s="3"/>
+    <row customHeight="true" ht="21" r="70">
+      <c r="A70" s="2"/>
       <c r="B70" s="1" t="str">
         <v>-</v>
       </c>
@@ -3291,20 +3290,20 @@
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1">
-        <v>120727</v>
+        <v>146643</v>
       </c>
       <c r="F70" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G70" s="1" t="str">
-        <v>AssetId:122231</v>
+        <v>AssetId:35447</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1" t="str">
-        <v>倚树弹吉他</v>
+        <v>拍照-心-右</v>
       </c>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
@@ -3321,8 +3320,8 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
     </row>
-    <row r="71">
-      <c r="A71" s="3"/>
+    <row customHeight="true" ht="21" r="71">
+      <c r="A71" s="2"/>
       <c r="B71" s="1" t="str">
         <v>-</v>
       </c>
@@ -3331,20 +3330,20 @@
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1">
-        <v>128699</v>
+        <v>110057</v>
       </c>
       <c r="F71" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G71" s="1" t="str">
-        <v>AssetId:122231</v>
+        <v>AssetId:29762</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1" t="str">
-        <v>楼梯-相机</v>
+        <v>椅子坐樱花枝1</v>
       </c>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
@@ -3361,8 +3360,8 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
     </row>
-    <row r="72">
-      <c r="A72" s="3"/>
+    <row customHeight="true" ht="21" r="72">
+      <c r="A72" s="2"/>
       <c r="B72" s="1" t="str">
         <v>-</v>
       </c>
@@ -3373,18 +3372,18 @@
       <c r="E72" s="1">
         <v>110057</v>
       </c>
-      <c r="F72" s="2">
+      <c r="F72" s="1">
         <v>19</v>
       </c>
       <c r="G72" s="1" t="str">
-        <v>AssetId:180882</v>
+        <v>AssetId:29762</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1" t="str">
-        <v>二楼樱花枝</v>
+        <v>椅子坐樱花枝2</v>
       </c>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
@@ -3401,8 +3400,8 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
     </row>
-    <row r="73">
-      <c r="A73" s="3"/>
+    <row customHeight="true" ht="21" r="73">
+      <c r="A73" s="2"/>
       <c r="B73" s="1" t="str">
         <v>-</v>
       </c>
@@ -3411,20 +3410,20 @@
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1">
-        <v>120727</v>
-      </c>
-      <c r="F73" s="2">
+        <v>110057</v>
+      </c>
+      <c r="F73" s="1">
         <v>19</v>
       </c>
       <c r="G73" s="1" t="str">
-        <v>AssetId:122227</v>
+        <v>AssetId:29762</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1" t="str">
-        <v>二楼粉色吉他</v>
+        <v>椅子坐樱花枝3</v>
       </c>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
@@ -3441,8 +3440,8 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74">
-      <c r="A74" s="3"/>
+    <row customHeight="true" ht="21" r="74">
+      <c r="A74" s="2"/>
       <c r="B74" s="1" t="str">
         <v>-</v>
       </c>
@@ -3451,20 +3450,20 @@
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1">
-        <v>146463</v>
+        <v>158414</v>
       </c>
       <c r="F74" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G74" s="1" t="str">
-        <v>AssetId:122233</v>
+        <v>AssetId:14654</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1" t="str">
-        <v>楼梯-播特效</v>
+        <v>长椅躺</v>
       </c>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
@@ -3481,8 +3480,8 @@
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
     </row>
-    <row r="75">
-      <c r="A75" s="3"/>
+    <row customHeight="true" ht="21" r="75">
+      <c r="A75" s="2"/>
       <c r="B75" s="1" t="str">
         <v>-</v>
       </c>
@@ -3491,20 +3490,20 @@
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1">
-        <v>110057</v>
-      </c>
-      <c r="F75" s="2">
-        <v>19</v>
+        <v>120727</v>
+      </c>
+      <c r="F75" s="1">
+        <v>17</v>
       </c>
       <c r="G75" s="1" t="str">
-        <v>AssetId:122227</v>
+        <v>AssetId:122231</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1" t="str">
-        <v>二楼看书1</v>
+        <v>倚树弹吉他</v>
       </c>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
@@ -3521,8 +3520,8 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
     </row>
-    <row r="76">
-      <c r="A76" s="3"/>
+    <row customHeight="true" ht="21" r="76">
+      <c r="A76" s="2"/>
       <c r="B76" s="1" t="str">
         <v>-</v>
       </c>
@@ -3534,17 +3533,17 @@
         <v>128699</v>
       </c>
       <c r="F76" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G76" s="1" t="str">
-        <v>AssetId:198589</v>
+        <v>AssetId:122231</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1" t="str">
-        <v>二楼看书2</v>
+        <v>楼梯-相机</v>
       </c>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
@@ -3561,8 +3560,8 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
     </row>
-    <row r="77">
-      <c r="A77" s="3"/>
+    <row customHeight="true" ht="21" r="77">
+      <c r="A77" s="2"/>
       <c r="B77" s="1" t="str">
         <v>-</v>
       </c>
@@ -3571,20 +3570,20 @@
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1">
-        <v>146603</v>
+        <v>110057</v>
       </c>
       <c r="F77" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G77" s="1" t="str">
-        <v>AssetId:122231</v>
+        <v>AssetId:180882</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1" t="str">
-        <v>二楼看书3</v>
+        <v>二楼樱花枝</v>
       </c>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
@@ -3601,8 +3600,8 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
     </row>
-    <row r="78">
-      <c r="A78" s="3"/>
+    <row customHeight="true" ht="21" r="78">
+      <c r="A78" s="2"/>
       <c r="B78" s="1" t="str">
         <v>-</v>
       </c>
@@ -3611,20 +3610,20 @@
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1">
-        <v>110057</v>
-      </c>
-      <c r="F78" s="2">
+        <v>120727</v>
+      </c>
+      <c r="F78" s="1">
         <v>19</v>
       </c>
       <c r="G78" s="1" t="str">
-        <v>AssetId:14739</v>
+        <v>AssetId:122227</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1" t="str">
-        <v>二楼看书4</v>
+        <v>二楼粉色吉他</v>
       </c>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
@@ -3641,8 +3640,8 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
     </row>
-    <row r="79">
-      <c r="A79" s="3"/>
+    <row customHeight="true" ht="21" r="79">
+      <c r="A79" s="2"/>
       <c r="B79" s="1" t="str">
         <v>-</v>
       </c>
@@ -3651,20 +3650,20 @@
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1">
-        <v>110057</v>
-      </c>
-      <c r="F79" s="2">
-        <v>19</v>
+        <v>146463</v>
+      </c>
+      <c r="F79" s="1">
+        <v>17</v>
       </c>
       <c r="G79" s="1" t="str">
-        <v>AssetId:132725</v>
+        <v>AssetId:122233</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1" t="str">
-        <v>二楼电脑</v>
+        <v>楼梯-播特效</v>
       </c>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
@@ -3681,8 +3680,8 @@
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
     </row>
-    <row r="80">
-      <c r="A80" s="3"/>
+    <row customHeight="true" ht="21" r="80">
+      <c r="A80" s="2"/>
       <c r="B80" s="1" t="str">
         <v>-</v>
       </c>
@@ -3693,18 +3692,18 @@
       <c r="E80" s="1">
         <v>110057</v>
       </c>
-      <c r="F80" s="2">
+      <c r="F80" s="1">
         <v>19</v>
       </c>
       <c r="G80" s="1" t="str">
-        <v>AssetId:14739</v>
+        <v>AssetId:122227</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1" t="str">
-        <v>二楼看书5</v>
+        <v>二楼看书1</v>
       </c>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
@@ -3721,8 +3720,8 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
     </row>
-    <row r="81">
-      <c r="A81" s="3"/>
+    <row customHeight="true" ht="21" r="81">
+      <c r="A81" s="2"/>
       <c r="B81" s="1" t="str">
         <v>-</v>
       </c>
@@ -3731,20 +3730,20 @@
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1">
-        <v>110057</v>
-      </c>
-      <c r="F81" s="2">
-        <v>19</v>
+        <v>128699</v>
+      </c>
+      <c r="F81" s="1">
+        <v>17</v>
       </c>
       <c r="G81" s="1" t="str">
-        <v>AssetId:29762</v>
+        <v>AssetId:198589</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1" t="str">
-        <v>一楼椅子樱花枝条</v>
+        <v>二楼看书2</v>
       </c>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
@@ -3761,8 +3760,8 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
     </row>
-    <row r="82">
-      <c r="A82" s="3"/>
+    <row customHeight="true" ht="21" r="82">
+      <c r="A82" s="2"/>
       <c r="B82" s="1" t="str">
         <v>-</v>
       </c>
@@ -3771,20 +3770,20 @@
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1">
-        <v>110057</v>
-      </c>
-      <c r="F82" s="2">
-        <v>19</v>
+        <v>146603</v>
+      </c>
+      <c r="F82" s="1">
+        <v>18</v>
       </c>
       <c r="G82" s="1" t="str">
-        <v>AssetId:29762</v>
+        <v>AssetId:122231</v>
       </c>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1" t="str">
-        <v>二楼椅子樱花枝条1</v>
+        <v>二楼看书3</v>
       </c>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
@@ -3801,8 +3800,8 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
     </row>
-    <row r="83">
-      <c r="A83" s="3"/>
+    <row customHeight="true" ht="21" r="83">
+      <c r="A83" s="2"/>
       <c r="B83" s="1" t="str">
         <v>-</v>
       </c>
@@ -3813,18 +3812,18 @@
       <c r="E83" s="1">
         <v>110057</v>
       </c>
-      <c r="F83" s="2">
+      <c r="F83" s="1">
         <v>19</v>
       </c>
       <c r="G83" s="1" t="str">
-        <v>AssetId:218259</v>
+        <v>AssetId:14739</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1" t="str">
-        <v>二楼椅子樱花枝条2</v>
+        <v>二楼看书4</v>
       </c>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
@@ -3841,8 +3840,8 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
     </row>
-    <row r="84">
-      <c r="A84" s="3"/>
+    <row customHeight="true" ht="21" r="84">
+      <c r="A84" s="2"/>
       <c r="B84" s="1" t="str">
         <v>-</v>
       </c>
@@ -3853,18 +3852,18 @@
       <c r="E84" s="1">
         <v>110057</v>
       </c>
-      <c r="F84" s="2">
+      <c r="F84" s="1">
         <v>19</v>
       </c>
       <c r="G84" s="1" t="str">
-        <v>AssetId:14739</v>
+        <v>AssetId:132725</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1" t="str">
-        <v>二楼看书6</v>
+        <v>二楼电脑</v>
       </c>
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
@@ -3881,22 +3880,30 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
     </row>
-    <row r="85">
-      <c r="A85" s="3"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
+    <row customHeight="true" ht="21" r="85">
+      <c r="A85" s="2"/>
+      <c r="B85" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="C85" s="1" t="str">
+        <v>-</v>
+      </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1">
-        <v>110111</v>
-      </c>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
+        <v>110057</v>
+      </c>
+      <c r="F85" s="1">
+        <v>19</v>
+      </c>
+      <c r="G85" s="1" t="str">
+        <v>AssetId:14739</v>
+      </c>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1" t="str">
-        <v>盘子</v>
+        <v>二楼看书5</v>
       </c>
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
@@ -3913,8 +3920,8 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
     </row>
-    <row r="86">
-      <c r="A86" s="3"/>
+    <row customHeight="true" ht="21" r="86">
+      <c r="A86" s="2"/>
       <c r="B86" s="1" t="str">
         <v>-</v>
       </c>
@@ -3923,20 +3930,20 @@
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1">
-        <v>168260</v>
+        <v>110057</v>
       </c>
       <c r="F86" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G86" s="1" t="str">
-        <v>AssetId:14601</v>
+        <v>AssetId:29762</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1" t="str">
-        <v>秋千-站</v>
+        <v>一楼椅子樱花枝条</v>
       </c>
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
@@ -3953,8 +3960,8 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
     </row>
-    <row r="87">
-      <c r="A87" s="3"/>
+    <row customHeight="true" ht="21" r="87">
+      <c r="A87" s="2"/>
       <c r="B87" s="1" t="str">
         <v>-</v>
       </c>
@@ -3963,20 +3970,20 @@
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1">
-        <v>158399</v>
+        <v>110057</v>
       </c>
       <c r="F87" s="1">
         <v>19</v>
       </c>
       <c r="G87" s="1" t="str">
-        <v>AssetId:122449</v>
+        <v>AssetId:29762</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1" t="str">
-        <v>秋千-坐</v>
+        <v>二楼椅子樱花枝条1</v>
       </c>
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
@@ -3993,22 +4000,30 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
     </row>
-    <row r="88">
-      <c r="A88" s="3"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
+    <row customHeight="true" ht="21" r="88">
+      <c r="A88" s="2"/>
+      <c r="B88" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="C88" s="1" t="str">
+        <v>-</v>
+      </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1">
-        <v>110111</v>
-      </c>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
+        <v>110057</v>
+      </c>
+      <c r="F88" s="1">
+        <v>19</v>
+      </c>
+      <c r="G88" s="1" t="str">
+        <v>AssetId:218259</v>
+      </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1" t="str">
-        <v>电吉他</v>
+        <v>二楼椅子樱花枝条2</v>
       </c>
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
@@ -4025,22 +4040,30 @@
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
     </row>
-    <row r="89">
-      <c r="A89" s="3"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
+    <row customHeight="true" ht="21" r="89">
+      <c r="A89" s="2"/>
+      <c r="B89" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="C89" s="1" t="str">
+        <v>-</v>
+      </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1">
-        <v>110111</v>
-      </c>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
+        <v>110057</v>
+      </c>
+      <c r="F89" s="1">
+        <v>19</v>
+      </c>
+      <c r="G89" s="1" t="str">
+        <v>AssetId:14739</v>
+      </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1" t="str">
-        <v>凳子</v>
+        <v>二楼看书6</v>
       </c>
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
@@ -4057,30 +4080,22 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90">
-      <c r="A90" s="3">
-        <v>11</v>
-      </c>
-      <c r="B90" s="1" t="str">
-        <v>39F6F33A</v>
-      </c>
+    <row customHeight="true" ht="21" r="90">
+      <c r="A90" s="2"/>
+      <c r="B90" s="1"/>
       <c r="C90" s="1"/>
-      <c r="D90" s="1" t="str">
-        <v>347852D1</v>
-      </c>
+      <c r="D90" s="1"/>
       <c r="E90" s="1">
-        <v>197036</v>
+        <v>110111</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
-      <c r="H90" s="4">
-        <v>30048</v>
-      </c>
-      <c r="I90" s="4"/>
-      <c r="J90" s="4"/>
-      <c r="K90" s="4"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
       <c r="L90" s="1" t="str">
-        <v>烟花筒</v>
+        <v>盘子</v>
       </c>
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
@@ -4097,30 +4112,30 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
     </row>
-    <row customHeight="true" ht="19" r="91">
-      <c r="A91" s="3">
-        <v>12</v>
-      </c>
+    <row customHeight="true" ht="21" r="91">
+      <c r="A91" s="2"/>
       <c r="B91" s="1" t="str">
-        <v>227E47FB</v>
-      </c>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1" t="str">
-        <v>061EAE7B</v>
-      </c>
+        <v>-</v>
+      </c>
+      <c r="C91" s="1" t="str">
+        <v>-</v>
+      </c>
+      <c r="D91" s="1"/>
       <c r="E91" s="1">
-        <v>197036</v>
-      </c>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="4">
-        <v>30044</v>
-      </c>
-      <c r="I91" s="4"/>
-      <c r="J91" s="4"/>
-      <c r="K91" s="4"/>
+        <v>168260</v>
+      </c>
+      <c r="F91" s="1">
+        <v>17</v>
+      </c>
+      <c r="G91" s="1" t="str">
+        <v>AssetId:14601</v>
+      </c>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
       <c r="L91" s="1" t="str">
-        <v>烟花筒</v>
+        <v>秋千-站</v>
       </c>
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
@@ -4137,28 +4152,30 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
     </row>
-    <row customHeight="true" ht="19" r="92">
-      <c r="A92" s="3">
-        <v>13</v>
-      </c>
+    <row customHeight="true" ht="21" r="92">
+      <c r="A92" s="2"/>
       <c r="B92" s="1" t="str">
-        <v>1EE77E63</v>
-      </c>
-      <c r="C92" s="1"/>
+        <v>-</v>
+      </c>
+      <c r="C92" s="1" t="str">
+        <v>-</v>
+      </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1">
-        <v>197036</v>
-      </c>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="4">
-        <v>30048</v>
-      </c>
-      <c r="I92" s="4"/>
-      <c r="J92" s="4"/>
-      <c r="K92" s="4"/>
+        <v>158399</v>
+      </c>
+      <c r="F92" s="1">
+        <v>19</v>
+      </c>
+      <c r="G92" s="1" t="str">
+        <v>AssetId:122449</v>
+      </c>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
       <c r="L92" s="1" t="str">
-        <v>烟花筒</v>
+        <v>秋千-坐</v>
       </c>
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
@@ -4175,28 +4192,22 @@
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
     </row>
-    <row customHeight="true" ht="19" r="93">
-      <c r="A93" s="3">
-        <v>14</v>
-      </c>
-      <c r="B93" s="1" t="str">
-        <v>175C7F02</v>
-      </c>
+    <row customHeight="true" ht="21" r="93">
+      <c r="A93" s="2"/>
+      <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1">
-        <v>197036</v>
+        <v>110111</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
-      <c r="H93" s="4">
-        <v>30044</v>
-      </c>
-      <c r="I93" s="4"/>
-      <c r="J93" s="4"/>
-      <c r="K93" s="4"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
       <c r="L93" s="1" t="str">
-        <v>烟花筒</v>
+        <v>电吉他</v>
       </c>
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
@@ -4213,30 +4224,22 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
     </row>
-    <row r="94">
-      <c r="A94" s="3"/>
-      <c r="B94" s="1" t="str">
-        <v>-</v>
-      </c>
-      <c r="C94" s="1" t="str">
-        <v>-</v>
-      </c>
+    <row customHeight="true" ht="21" r="94">
+      <c r="A94" s="2"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1">
-        <v>110057</v>
-      </c>
-      <c r="F94" s="1">
-        <v>19</v>
-      </c>
-      <c r="G94" s="1" t="str">
-        <v>AssetId:180882</v>
-      </c>
+        <v>110111</v>
+      </c>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
       <c r="L94" s="1" t="str">
-        <v>被搂</v>
+        <v>凳子</v>
       </c>
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
@@ -4253,30 +4256,28 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
     </row>
-    <row r="95">
-      <c r="A95" s="3"/>
+    <row customHeight="true" ht="21" r="95">
+      <c r="A95" s="2"/>
       <c r="B95" s="1" t="str">
-        <v>-</v>
-      </c>
-      <c r="C95" s="1" t="str">
-        <v>-</v>
-      </c>
-      <c r="D95" s="1"/>
+        <v>39F6F33A</v>
+      </c>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1" t="str">
+        <v>347852D1</v>
+      </c>
       <c r="E95" s="1">
-        <v>110057</v>
-      </c>
-      <c r="F95" s="1">
-        <v>19</v>
-      </c>
-      <c r="G95" s="1" t="str">
-        <v>AssetId:180891</v>
-      </c>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
-      <c r="K95" s="1"/>
+        <v>197036</v>
+      </c>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="3">
+        <v>30048</v>
+      </c>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
       <c r="L95" s="1" t="str">
-        <v>搂着</v>
+        <v>烟花筒</v>
       </c>
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
@@ -4293,28 +4294,28 @@
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
     </row>
-    <row r="96">
-      <c r="A96" s="3">
-        <v>15</v>
-      </c>
+    <row customHeight="true" ht="21" r="96">
+      <c r="A96" s="2"/>
       <c r="B96" s="1" t="str">
-        <v>218F4A38</v>
+        <v>227E47FB</v>
       </c>
       <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
+      <c r="D96" s="1" t="str">
+        <v>061EAE7B</v>
+      </c>
       <c r="E96" s="1">
-        <v>120767</v>
+        <v>197036</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
-      <c r="H96" s="1">
-        <v>60004</v>
-      </c>
-      <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
-      <c r="K96" s="1"/>
+      <c r="H96" s="3">
+        <v>30044</v>
+      </c>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
       <c r="L96" s="1" t="str">
-        <v>冲浪</v>
+        <v>烟花筒</v>
       </c>
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
@@ -4331,34 +4332,26 @@
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
     </row>
-    <row r="97">
-      <c r="A97" s="3">
-        <v>16</v>
-      </c>
+    <row customHeight="true" ht="21" r="97">
+      <c r="A97" s="2"/>
       <c r="B97" s="1" t="str">
-        <v>05ABA358</v>
-      </c>
-      <c r="C97" s="1" t="str">
-        <v>362EF4BC</v>
-      </c>
+        <v>1EE77E63</v>
+      </c>
+      <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1">
-        <v>120767</v>
-      </c>
-      <c r="F97" s="1">
-        <v>17</v>
-      </c>
-      <c r="G97" s="1">
-        <v>151060</v>
-      </c>
-      <c r="H97" s="1">
-        <v>10006</v>
-      </c>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
-      <c r="L97" s="4" t="str">
-        <v>电吉他</v>
+        <v>197036</v>
+      </c>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="3">
+        <v>30048</v>
+      </c>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="1" t="str">
+        <v>烟花筒</v>
       </c>
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
@@ -4375,34 +4368,26 @@
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
     </row>
-    <row r="98">
-      <c r="A98" s="3">
-        <v>17</v>
-      </c>
+    <row customHeight="true" ht="21" r="98">
+      <c r="A98" s="2"/>
       <c r="B98" s="1" t="str">
-        <v>1B047295</v>
-      </c>
-      <c r="C98" s="1" t="str">
-        <v>3111196C</v>
-      </c>
+        <v>175C7F02</v>
+      </c>
+      <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1">
-        <v>120767</v>
-      </c>
-      <c r="F98" s="1">
-        <v>23</v>
-      </c>
-      <c r="G98" s="1">
-        <v>151060</v>
-      </c>
-      <c r="H98" s="1">
-        <v>10106</v>
-      </c>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
-      <c r="L98" s="4" t="str">
-        <v>电吉他</v>
+        <v>197036</v>
+      </c>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="3">
+        <v>30044</v>
+      </c>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="1" t="str">
+        <v>烟花筒</v>
       </c>
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
@@ -4419,32 +4404,30 @@
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
     </row>
-    <row r="99">
-      <c r="A99" s="3">
-        <v>18</v>
-      </c>
+    <row customHeight="true" ht="21" r="99">
+      <c r="A99" s="2"/>
       <c r="B99" s="1" t="str">
-        <v>1CE3435E</v>
-      </c>
-      <c r="C99" s="1"/>
+        <v>-</v>
+      </c>
+      <c r="C99" s="1" t="str">
+        <v>-</v>
+      </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1">
-        <v>128717</v>
-      </c>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
+        <v>110057</v>
+      </c>
+      <c r="F99" s="1">
+        <v>19</v>
+      </c>
+      <c r="G99" s="1" t="str">
+        <v>AssetId:180882</v>
+      </c>
       <c r="H99" s="1"/>
-      <c r="I99" s="1" t="str">
-        <v>252E89F0</v>
-      </c>
-      <c r="J99" s="1">
-        <v>25</v>
-      </c>
-      <c r="K99" s="2">
-        <v>122231</v>
-      </c>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
       <c r="L99" s="1" t="str">
-        <v>换装-被壁咚</v>
+        <v>被搂</v>
       </c>
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
@@ -4461,30 +4444,30 @@
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
     </row>
-    <row r="100">
-      <c r="A100" s="3">
-        <v>19</v>
-      </c>
+    <row customHeight="true" ht="21" r="100">
+      <c r="A100" s="2"/>
       <c r="B100" s="1" t="str">
-        <v>15D2484A</v>
-      </c>
-      <c r="C100" s="1"/>
+        <v>-</v>
+      </c>
+      <c r="C100" s="1" t="str">
+        <v>-</v>
+      </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1">
-        <v>128717</v>
-      </c>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
+        <v>110057</v>
+      </c>
+      <c r="F100" s="1">
+        <v>19</v>
+      </c>
+      <c r="G100" s="1" t="str">
+        <v>AssetId:180891</v>
+      </c>
       <c r="H100" s="1"/>
-      <c r="I100" s="1" t="str">
-        <v>275CDCBB</v>
-      </c>
-      <c r="J100" s="1">
-        <v>0</v>
-      </c>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
       <c r="K100" s="1"/>
       <c r="L100" s="1" t="str">
-        <v>换装-还原</v>
+        <v>搂着</v>
       </c>
       <c r="M100" s="1"/>
       <c r="N100" s="1"/>
@@ -4501,32 +4484,26 @@
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
     </row>
-    <row r="101">
-      <c r="A101" s="3">
-        <v>20</v>
-      </c>
+    <row customHeight="true" ht="21" r="101">
+      <c r="A101" s="2"/>
       <c r="B101" s="1" t="str">
-        <v>36C4BA04</v>
+        <v>218F4A38</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1">
-        <v>128717</v>
+        <v>120767</v>
       </c>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1" t="str">
-        <v>14831C67</v>
-      </c>
-      <c r="J101" s="1">
-        <v>26</v>
-      </c>
-      <c r="K101" s="1">
-        <v>122232</v>
-      </c>
+      <c r="H101" s="1">
+        <v>60004</v>
+      </c>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
       <c r="L101" s="1" t="str">
-        <v>换装-壁咚</v>
+        <v>冲浪</v>
       </c>
       <c r="M101" s="1"/>
       <c r="N101" s="1"/>
@@ -4543,30 +4520,32 @@
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
     </row>
-    <row r="102">
-      <c r="A102" s="3">
-        <v>21</v>
-      </c>
+    <row customHeight="true" ht="21" r="102">
+      <c r="A102" s="2"/>
       <c r="B102" s="1" t="str">
-        <v>396EEE6D</v>
-      </c>
-      <c r="C102" s="1"/>
+        <v>05ABA358</v>
+      </c>
+      <c r="C102" s="1" t="str">
+        <v>362EF4BC</v>
+      </c>
       <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1" t="str">
-        <v>1E5CDA51</v>
-      </c>
-      <c r="J102" s="1">
-        <v>25</v>
-      </c>
-      <c r="K102" s="2">
-        <v>180882</v>
-      </c>
-      <c r="L102" s="1" t="str">
-        <v>换装-被搂</v>
+      <c r="E102" s="1">
+        <v>120767</v>
+      </c>
+      <c r="F102" s="1">
+        <v>17</v>
+      </c>
+      <c r="G102" s="1">
+        <v>151060</v>
+      </c>
+      <c r="H102" s="1">
+        <v>10006</v>
+      </c>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="3" t="str">
+        <v>电吉他</v>
       </c>
       <c r="M102" s="1"/>
       <c r="N102" s="1"/>
@@ -4583,30 +4562,32 @@
       <c r="Y102" s="1"/>
       <c r="Z102" s="1"/>
     </row>
-    <row r="103">
-      <c r="A103" s="3">
-        <v>22</v>
-      </c>
+    <row customHeight="true" ht="21" r="103">
+      <c r="A103" s="2"/>
       <c r="B103" s="1" t="str">
-        <v>2337834F</v>
-      </c>
-      <c r="C103" s="1"/>
+        <v>1B047295</v>
+      </c>
+      <c r="C103" s="1" t="str">
+        <v>3111196C</v>
+      </c>
       <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1" t="str">
-        <v>3584CD02</v>
-      </c>
-      <c r="J103" s="1">
-        <v>26</v>
-      </c>
-      <c r="K103" s="2">
-        <v>180891</v>
-      </c>
-      <c r="L103" s="1" t="str">
-        <v>换装-搂着</v>
+      <c r="E103" s="1">
+        <v>120767</v>
+      </c>
+      <c r="F103" s="1">
+        <v>23</v>
+      </c>
+      <c r="G103" s="1">
+        <v>151060</v>
+      </c>
+      <c r="H103" s="1">
+        <v>10106</v>
+      </c>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="3" t="str">
+        <v>电吉他</v>
       </c>
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
@@ -4624,18 +4605,30 @@
       <c r="Z103" s="1"/>
     </row>
     <row r="104">
-      <c r="A104" s="3"/>
-      <c r="B104" s="1"/>
+      <c r="A104" s="2"/>
+      <c r="B104" s="1" t="str">
+        <v>1CE3435E</v>
+      </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
+      <c r="E104" s="1">
+        <v>128717</v>
+      </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
-      <c r="K104" s="1"/>
-      <c r="L104" s="1"/>
+      <c r="I104" s="1" t="str">
+        <v>252E89F0</v>
+      </c>
+      <c r="J104" s="1">
+        <v>25</v>
+      </c>
+      <c r="K104" s="1">
+        <v>122231</v>
+      </c>
+      <c r="L104" s="1" t="str">
+        <v>换装-被壁咚</v>
+      </c>
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
@@ -4652,18 +4645,28 @@
       <c r="Z104" s="1"/>
     </row>
     <row r="105">
-      <c r="A105" s="3"/>
-      <c r="B105" s="1"/>
+      <c r="A105" s="2"/>
+      <c r="B105" s="1" t="str">
+        <v>15D2484A</v>
+      </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
+      <c r="E105" s="1">
+        <v>128717</v>
+      </c>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-      <c r="J105" s="1"/>
+      <c r="I105" s="1" t="str">
+        <v>275CDCBB</v>
+      </c>
+      <c r="J105" s="1">
+        <v>0</v>
+      </c>
       <c r="K105" s="1"/>
-      <c r="L105" s="1"/>
+      <c r="L105" s="1" t="str">
+        <v>换装-还原</v>
+      </c>
       <c r="M105" s="1"/>
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
@@ -4680,18 +4683,30 @@
       <c r="Z105" s="1"/>
     </row>
     <row r="106">
-      <c r="A106" s="3"/>
-      <c r="B106" s="1"/>
+      <c r="A106" s="2"/>
+      <c r="B106" s="1" t="str">
+        <v>36C4BA04</v>
+      </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
+      <c r="E106" s="1">
+        <v>128717</v>
+      </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
-      <c r="J106" s="1"/>
-      <c r="K106" s="1"/>
-      <c r="L106" s="1"/>
+      <c r="I106" s="1" t="str">
+        <v>14831C67</v>
+      </c>
+      <c r="J106" s="1">
+        <v>26</v>
+      </c>
+      <c r="K106" s="1">
+        <v>122232</v>
+      </c>
+      <c r="L106" s="1" t="str">
+        <v>换装-壁咚</v>
+      </c>
       <c r="M106" s="1"/>
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
@@ -4708,7 +4723,7 @@
       <c r="Z106" s="1"/>
     </row>
     <row r="107">
-      <c r="A107" s="3"/>
+      <c r="A107" s="2"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -4717,9 +4732,15 @@
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
-      <c r="J107" s="1"/>
-      <c r="K107" s="1"/>
-      <c r="L107" s="1"/>
+      <c r="J107" s="1">
+        <v>25</v>
+      </c>
+      <c r="K107" s="1">
+        <v>180882</v>
+      </c>
+      <c r="L107" s="1" t="str">
+        <v>换装-被搂</v>
+      </c>
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
@@ -4736,7 +4757,7 @@
       <c r="Z107" s="1"/>
     </row>
     <row r="108">
-      <c r="A108" s="3"/>
+      <c r="A108" s="2"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -4745,9 +4766,15 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
-      <c r="J108" s="1"/>
-      <c r="K108" s="1"/>
-      <c r="L108" s="1"/>
+      <c r="J108" s="1">
+        <v>26</v>
+      </c>
+      <c r="K108" s="1">
+        <v>180891</v>
+      </c>
+      <c r="L108" s="1" t="str">
+        <v>换装-搂着</v>
+      </c>
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
       <c r="O108" s="1"/>
@@ -4764,7 +4791,9 @@
       <c r="Z108" s="1"/>
     </row>
     <row r="109">
-      <c r="A109" s="3"/>
+      <c r="A109" s="2">
+        <v>100</v>
+      </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -4772,10 +4801,18 @@
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
-      <c r="J109" s="1"/>
-      <c r="K109" s="1"/>
-      <c r="L109" s="1"/>
+      <c r="I109" s="1" t="str">
+        <v>2C383996</v>
+      </c>
+      <c r="J109" s="1">
+        <v>7</v>
+      </c>
+      <c r="K109" s="1">
+        <v>122231</v>
+      </c>
+      <c r="L109" s="5" t="str">
+        <v>被壁咚</v>
+      </c>
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
@@ -4792,7 +4829,9 @@
       <c r="Z109" s="1"/>
     </row>
     <row r="110">
-      <c r="A110" s="3"/>
+      <c r="A110" s="2">
+        <v>101</v>
+      </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -4800,10 +4839,18 @@
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
-      <c r="J110" s="1"/>
-      <c r="K110" s="1"/>
-      <c r="L110" s="1"/>
+      <c r="I110" s="1" t="str">
+        <v>271ABFD3</v>
+      </c>
+      <c r="J110" s="1">
+        <v>3</v>
+      </c>
+      <c r="K110" s="1">
+        <v>122232</v>
+      </c>
+      <c r="L110" s="5" t="str">
+        <v>壁咚</v>
+      </c>
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
       <c r="O110" s="1"/>
@@ -4820,7 +4867,7 @@
       <c r="Z110" s="1"/>
     </row>
     <row r="111">
-      <c r="A111" s="3"/>
+      <c r="A111" s="2"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -4848,7 +4895,7 @@
       <c r="Z111" s="1"/>
     </row>
     <row r="112">
-      <c r="A112" s="3"/>
+      <c r="A112" s="2"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -4876,7 +4923,7 @@
       <c r="Z112" s="1"/>
     </row>
     <row r="113">
-      <c r="A113" s="3"/>
+      <c r="A113" s="2"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -4904,7 +4951,7 @@
       <c r="Z113" s="1"/>
     </row>
     <row r="114">
-      <c r="A114" s="3"/>
+      <c r="A114" s="2"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -4932,7 +4979,7 @@
       <c r="Z114" s="1"/>
     </row>
     <row r="115">
-      <c r="A115" s="3"/>
+      <c r="A115" s="2"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -4960,7 +5007,7 @@
       <c r="Z115" s="1"/>
     </row>
     <row r="116">
-      <c r="A116" s="3"/>
+      <c r="A116" s="2"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -4988,7 +5035,7 @@
       <c r="Z116" s="1"/>
     </row>
     <row r="117">
-      <c r="A117" s="3"/>
+      <c r="A117" s="2"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -5016,7 +5063,7 @@
       <c r="Z117" s="1"/>
     </row>
     <row r="118">
-      <c r="A118" s="3"/>
+      <c r="A118" s="2"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -5044,7 +5091,7 @@
       <c r="Z118" s="1"/>
     </row>
     <row r="119">
-      <c r="A119" s="3"/>
+      <c r="A119" s="2"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -5072,7 +5119,7 @@
       <c r="Z119" s="1"/>
     </row>
     <row r="120">
-      <c r="A120" s="3"/>
+      <c r="A120" s="2"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -5100,7 +5147,7 @@
       <c r="Z120" s="1"/>
     </row>
     <row r="121">
-      <c r="A121" s="3"/>
+      <c r="A121" s="2"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -5128,7 +5175,7 @@
       <c r="Z121" s="1"/>
     </row>
     <row r="122">
-      <c r="A122" s="3"/>
+      <c r="A122" s="2"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -5156,7 +5203,7 @@
       <c r="Z122" s="1"/>
     </row>
     <row r="123">
-      <c r="A123" s="3"/>
+      <c r="A123" s="2"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -5184,7 +5231,7 @@
       <c r="Z123" s="1"/>
     </row>
     <row r="124">
-      <c r="A124" s="3"/>
+      <c r="A124" s="2"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -5212,7 +5259,7 @@
       <c r="Z124" s="1"/>
     </row>
     <row r="125">
-      <c r="A125" s="3"/>
+      <c r="A125" s="2"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -5240,7 +5287,7 @@
       <c r="Z125" s="1"/>
     </row>
     <row r="126">
-      <c r="A126" s="3"/>
+      <c r="A126" s="2"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -5268,7 +5315,7 @@
       <c r="Z126" s="1"/>
     </row>
     <row r="127">
-      <c r="A127" s="3"/>
+      <c r="A127" s="2"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -5296,7 +5343,7 @@
       <c r="Z127" s="1"/>
     </row>
     <row r="128">
-      <c r="A128" s="3"/>
+      <c r="A128" s="2"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -5324,7 +5371,7 @@
       <c r="Z128" s="1"/>
     </row>
     <row r="129">
-      <c r="A129" s="3"/>
+      <c r="A129" s="2"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -5352,7 +5399,7 @@
       <c r="Z129" s="1"/>
     </row>
     <row r="130">
-      <c r="A130" s="3"/>
+      <c r="A130" s="2"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -5380,7 +5427,7 @@
       <c r="Z130" s="1"/>
     </row>
     <row r="131">
-      <c r="A131" s="3"/>
+      <c r="A131" s="2"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -5408,7 +5455,7 @@
       <c r="Z131" s="1"/>
     </row>
     <row r="132">
-      <c r="A132" s="3"/>
+      <c r="A132" s="2"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -5436,7 +5483,7 @@
       <c r="Z132" s="1"/>
     </row>
     <row r="133">
-      <c r="A133" s="3"/>
+      <c r="A133" s="2"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -5464,7 +5511,7 @@
       <c r="Z133" s="1"/>
     </row>
     <row r="134">
-      <c r="A134" s="3"/>
+      <c r="A134" s="2"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -5492,7 +5539,7 @@
       <c r="Z134" s="1"/>
     </row>
     <row r="135">
-      <c r="A135" s="3"/>
+      <c r="A135" s="2"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -5520,7 +5567,7 @@
       <c r="Z135" s="1"/>
     </row>
     <row r="136">
-      <c r="A136" s="3"/>
+      <c r="A136" s="2"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -5548,7 +5595,7 @@
       <c r="Z136" s="1"/>
     </row>
     <row r="137">
-      <c r="A137" s="3"/>
+      <c r="A137" s="2"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -5576,7 +5623,7 @@
       <c r="Z137" s="1"/>
     </row>
     <row r="138">
-      <c r="A138" s="3"/>
+      <c r="A138" s="2"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -5604,7 +5651,7 @@
       <c r="Z138" s="1"/>
     </row>
     <row r="139">
-      <c r="A139" s="3"/>
+      <c r="A139" s="2"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -5632,7 +5679,7 @@
       <c r="Z139" s="1"/>
     </row>
     <row r="140">
-      <c r="A140" s="3"/>
+      <c r="A140" s="2"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -5660,7 +5707,7 @@
       <c r="Z140" s="1"/>
     </row>
     <row r="141">
-      <c r="A141" s="3"/>
+      <c r="A141" s="2"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -5688,7 +5735,7 @@
       <c r="Z141" s="1"/>
     </row>
     <row r="142">
-      <c r="A142" s="3"/>
+      <c r="A142" s="2"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -5716,7 +5763,7 @@
       <c r="Z142" s="1"/>
     </row>
     <row r="143">
-      <c r="A143" s="3"/>
+      <c r="A143" s="2"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -5744,7 +5791,7 @@
       <c r="Z143" s="1"/>
     </row>
     <row r="144">
-      <c r="A144" s="3"/>
+      <c r="A144" s="2"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -5772,7 +5819,7 @@
       <c r="Z144" s="1"/>
     </row>
     <row r="145">
-      <c r="A145" s="3"/>
+      <c r="A145" s="2"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -5800,7 +5847,7 @@
       <c r="Z145" s="1"/>
     </row>
     <row r="146">
-      <c r="A146" s="3"/>
+      <c r="A146" s="2"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -5828,7 +5875,7 @@
       <c r="Z146" s="1"/>
     </row>
     <row r="147">
-      <c r="A147" s="3"/>
+      <c r="A147" s="2"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -5856,7 +5903,7 @@
       <c r="Z147" s="1"/>
     </row>
     <row r="148">
-      <c r="A148" s="3"/>
+      <c r="A148" s="2"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -5884,7 +5931,7 @@
       <c r="Z148" s="1"/>
     </row>
     <row r="149">
-      <c r="A149" s="3"/>
+      <c r="A149" s="2"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -5912,7 +5959,7 @@
       <c r="Z149" s="1"/>
     </row>
     <row r="150">
-      <c r="A150" s="3"/>
+      <c r="A150" s="2"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -5940,7 +5987,7 @@
       <c r="Z150" s="1"/>
     </row>
     <row r="151">
-      <c r="A151" s="3"/>
+      <c r="A151" s="2"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -5968,7 +6015,7 @@
       <c r="Z151" s="1"/>
     </row>
     <row r="152">
-      <c r="A152" s="3"/>
+      <c r="A152" s="2"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -5996,7 +6043,7 @@
       <c r="Z152" s="1"/>
     </row>
     <row r="153">
-      <c r="A153" s="3"/>
+      <c r="A153" s="2"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -6024,7 +6071,7 @@
       <c r="Z153" s="1"/>
     </row>
     <row r="154">
-      <c r="A154" s="3"/>
+      <c r="A154" s="2"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -6052,7 +6099,7 @@
       <c r="Z154" s="1"/>
     </row>
     <row r="155">
-      <c r="A155" s="3"/>
+      <c r="A155" s="2"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -6080,7 +6127,7 @@
       <c r="Z155" s="1"/>
     </row>
     <row r="156">
-      <c r="A156" s="3"/>
+      <c r="A156" s="2"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -6108,7 +6155,7 @@
       <c r="Z156" s="1"/>
     </row>
     <row r="157">
-      <c r="A157" s="3"/>
+      <c r="A157" s="2"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -6136,7 +6183,7 @@
       <c r="Z157" s="1"/>
     </row>
     <row r="158">
-      <c r="A158" s="3"/>
+      <c r="A158" s="2"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -6164,7 +6211,7 @@
       <c r="Z158" s="1"/>
     </row>
     <row r="159">
-      <c r="A159" s="3"/>
+      <c r="A159" s="2"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -6192,7 +6239,7 @@
       <c r="Z159" s="1"/>
     </row>
     <row r="160">
-      <c r="A160" s="3"/>
+      <c r="A160" s="2"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -6220,7 +6267,7 @@
       <c r="Z160" s="1"/>
     </row>
     <row r="161">
-      <c r="A161" s="3"/>
+      <c r="A161" s="2"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -6248,7 +6295,7 @@
       <c r="Z161" s="1"/>
     </row>
     <row r="162">
-      <c r="A162" s="3"/>
+      <c r="A162" s="2"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -6276,7 +6323,7 @@
       <c r="Z162" s="1"/>
     </row>
     <row r="163">
-      <c r="A163" s="3"/>
+      <c r="A163" s="2"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -6304,7 +6351,7 @@
       <c r="Z163" s="1"/>
     </row>
     <row r="164">
-      <c r="A164" s="3"/>
+      <c r="A164" s="2"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -6332,7 +6379,7 @@
       <c r="Z164" s="1"/>
     </row>
     <row r="165">
-      <c r="A165" s="3"/>
+      <c r="A165" s="2"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -6360,7 +6407,7 @@
       <c r="Z165" s="1"/>
     </row>
     <row r="166">
-      <c r="A166" s="3"/>
+      <c r="A166" s="2"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -6388,7 +6435,7 @@
       <c r="Z166" s="1"/>
     </row>
     <row r="167">
-      <c r="A167" s="3"/>
+      <c r="A167" s="2"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -6416,7 +6463,7 @@
       <c r="Z167" s="1"/>
     </row>
     <row r="168">
-      <c r="A168" s="3"/>
+      <c r="A168" s="2"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -6444,7 +6491,7 @@
       <c r="Z168" s="1"/>
     </row>
     <row r="169">
-      <c r="A169" s="3"/>
+      <c r="A169" s="2"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -6472,7 +6519,7 @@
       <c r="Z169" s="1"/>
     </row>
     <row r="170">
-      <c r="A170" s="3"/>
+      <c r="A170" s="2"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -6500,7 +6547,7 @@
       <c r="Z170" s="1"/>
     </row>
     <row r="171">
-      <c r="A171" s="3"/>
+      <c r="A171" s="2"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -6528,7 +6575,7 @@
       <c r="Z171" s="1"/>
     </row>
     <row r="172">
-      <c r="A172" s="3"/>
+      <c r="A172" s="2"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -6556,7 +6603,7 @@
       <c r="Z172" s="1"/>
     </row>
     <row r="173">
-      <c r="A173" s="3"/>
+      <c r="A173" s="2"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -6584,7 +6631,7 @@
       <c r="Z173" s="1"/>
     </row>
     <row r="174">
-      <c r="A174" s="3"/>
+      <c r="A174" s="2"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -6612,7 +6659,7 @@
       <c r="Z174" s="1"/>
     </row>
     <row r="175">
-      <c r="A175" s="3"/>
+      <c r="A175" s="2"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -6640,7 +6687,7 @@
       <c r="Z175" s="1"/>
     </row>
     <row r="176">
-      <c r="A176" s="3"/>
+      <c r="A176" s="2"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -6668,7 +6715,7 @@
       <c r="Z176" s="1"/>
     </row>
     <row r="177">
-      <c r="A177" s="3"/>
+      <c r="A177" s="2"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -6696,7 +6743,7 @@
       <c r="Z177" s="1"/>
     </row>
     <row r="178">
-      <c r="A178" s="3"/>
+      <c r="A178" s="2"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -6724,7 +6771,7 @@
       <c r="Z178" s="1"/>
     </row>
     <row r="179">
-      <c r="A179" s="3"/>
+      <c r="A179" s="2"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -6752,7 +6799,7 @@
       <c r="Z179" s="1"/>
     </row>
     <row r="180">
-      <c r="A180" s="3"/>
+      <c r="A180" s="2"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -6780,7 +6827,7 @@
       <c r="Z180" s="1"/>
     </row>
     <row r="181">
-      <c r="A181" s="3"/>
+      <c r="A181" s="2"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -6808,7 +6855,7 @@
       <c r="Z181" s="1"/>
     </row>
     <row r="182">
-      <c r="A182" s="3"/>
+      <c r="A182" s="2"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -6836,7 +6883,7 @@
       <c r="Z182" s="1"/>
     </row>
     <row r="183">
-      <c r="A183" s="3"/>
+      <c r="A183" s="2"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -6864,7 +6911,7 @@
       <c r="Z183" s="1"/>
     </row>
     <row r="184">
-      <c r="A184" s="3"/>
+      <c r="A184" s="2"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -6892,7 +6939,7 @@
       <c r="Z184" s="1"/>
     </row>
     <row r="185">
-      <c r="A185" s="3"/>
+      <c r="A185" s="2"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -6920,7 +6967,7 @@
       <c r="Z185" s="1"/>
     </row>
     <row r="186">
-      <c r="A186" s="3"/>
+      <c r="A186" s="2"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -6948,7 +6995,7 @@
       <c r="Z186" s="1"/>
     </row>
     <row r="187">
-      <c r="A187" s="3"/>
+      <c r="A187" s="2"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -6976,7 +7023,7 @@
       <c r="Z187" s="1"/>
     </row>
     <row r="188">
-      <c r="A188" s="3"/>
+      <c r="A188" s="2"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -7004,7 +7051,7 @@
       <c r="Z188" s="1"/>
     </row>
     <row r="189">
-      <c r="A189" s="3"/>
+      <c r="A189" s="2"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -7032,7 +7079,7 @@
       <c r="Z189" s="1"/>
     </row>
     <row r="190">
-      <c r="A190" s="3"/>
+      <c r="A190" s="2"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -7060,7 +7107,7 @@
       <c r="Z190" s="1"/>
     </row>
     <row r="191">
-      <c r="A191" s="3"/>
+      <c r="A191" s="2"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -7088,7 +7135,7 @@
       <c r="Z191" s="1"/>
     </row>
     <row r="192">
-      <c r="A192" s="3"/>
+      <c r="A192" s="2"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -7116,7 +7163,7 @@
       <c r="Z192" s="1"/>
     </row>
     <row r="193">
-      <c r="A193" s="3"/>
+      <c r="A193" s="2"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -7144,7 +7191,7 @@
       <c r="Z193" s="1"/>
     </row>
     <row r="194">
-      <c r="A194" s="3"/>
+      <c r="A194" s="2"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -7172,7 +7219,7 @@
       <c r="Z194" s="1"/>
     </row>
     <row r="195">
-      <c r="A195" s="3"/>
+      <c r="A195" s="2"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
@@ -7200,7 +7247,7 @@
       <c r="Z195" s="1"/>
     </row>
     <row r="196">
-      <c r="A196" s="3"/>
+      <c r="A196" s="2"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -7228,7 +7275,7 @@
       <c r="Z196" s="1"/>
     </row>
     <row r="197">
-      <c r="A197" s="3"/>
+      <c r="A197" s="2"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
@@ -7256,7 +7303,7 @@
       <c r="Z197" s="1"/>
     </row>
     <row r="198">
-      <c r="A198" s="3"/>
+      <c r="A198" s="2"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -7284,7 +7331,7 @@
       <c r="Z198" s="1"/>
     </row>
     <row r="199">
-      <c r="A199" s="3"/>
+      <c r="A199" s="2"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
@@ -7312,7 +7359,7 @@
       <c r="Z199" s="1"/>
     </row>
     <row r="200">
-      <c r="A200" s="3"/>
+      <c r="A200" s="2"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -7340,7 +7387,7 @@
       <c r="Z200" s="1"/>
     </row>
     <row r="201">
-      <c r="A201" s="3"/>
+      <c r="A201" s="2"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
@@ -7368,7 +7415,7 @@
       <c r="Z201" s="1"/>
     </row>
     <row r="202">
-      <c r="A202" s="3"/>
+      <c r="A202" s="2"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
@@ -7396,7 +7443,7 @@
       <c r="Z202" s="1"/>
     </row>
     <row r="203">
-      <c r="A203" s="3"/>
+      <c r="A203" s="2"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
@@ -7424,7 +7471,7 @@
       <c r="Z203" s="1"/>
     </row>
     <row r="204">
-      <c r="A204" s="3"/>
+      <c r="A204" s="2"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
@@ -7452,7 +7499,7 @@
       <c r="Z204" s="1"/>
     </row>
     <row r="205">
-      <c r="A205" s="3"/>
+      <c r="A205" s="2"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
@@ -7480,7 +7527,7 @@
       <c r="Z205" s="1"/>
     </row>
     <row r="206">
-      <c r="A206" s="3"/>
+      <c r="A206" s="2"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
@@ -7508,7 +7555,7 @@
       <c r="Z206" s="1"/>
     </row>
     <row r="207">
-      <c r="A207" s="3"/>
+      <c r="A207" s="2"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
@@ -7536,7 +7583,7 @@
       <c r="Z207" s="1"/>
     </row>
     <row r="208">
-      <c r="A208" s="3"/>
+      <c r="A208" s="2"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
@@ -7564,7 +7611,7 @@
       <c r="Z208" s="1"/>
     </row>
     <row r="209">
-      <c r="A209" s="3"/>
+      <c r="A209" s="2"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
@@ -7592,7 +7639,7 @@
       <c r="Z209" s="1"/>
     </row>
     <row r="210">
-      <c r="A210" s="3"/>
+      <c r="A210" s="2"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
@@ -7620,7 +7667,7 @@
       <c r="Z210" s="1"/>
     </row>
     <row r="211">
-      <c r="A211" s="3"/>
+      <c r="A211" s="2"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
@@ -7648,7 +7695,7 @@
       <c r="Z211" s="1"/>
     </row>
     <row r="212">
-      <c r="A212" s="3"/>
+      <c r="A212" s="2"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
@@ -7676,7 +7723,7 @@
       <c r="Z212" s="1"/>
     </row>
     <row r="213">
-      <c r="A213" s="3"/>
+      <c r="A213" s="2"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
@@ -7704,7 +7751,7 @@
       <c r="Z213" s="1"/>
     </row>
     <row r="214">
-      <c r="A214" s="3"/>
+      <c r="A214" s="2"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
@@ -7732,7 +7779,7 @@
       <c r="Z214" s="1"/>
     </row>
     <row r="215">
-      <c r="A215" s="3"/>
+      <c r="A215" s="2"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
@@ -7760,7 +7807,7 @@
       <c r="Z215" s="1"/>
     </row>
     <row r="216">
-      <c r="A216" s="3"/>
+      <c r="A216" s="2"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
@@ -7788,7 +7835,7 @@
       <c r="Z216" s="1"/>
     </row>
     <row r="217">
-      <c r="A217" s="3"/>
+      <c r="A217" s="2"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
@@ -7816,7 +7863,7 @@
       <c r="Z217" s="1"/>
     </row>
     <row r="218">
-      <c r="A218" s="3"/>
+      <c r="A218" s="2"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
@@ -7844,7 +7891,7 @@
       <c r="Z218" s="1"/>
     </row>
     <row r="219">
-      <c r="A219" s="3"/>
+      <c r="A219" s="2"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
@@ -7872,7 +7919,7 @@
       <c r="Z219" s="1"/>
     </row>
     <row r="220">
-      <c r="A220" s="3"/>
+      <c r="A220" s="2"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
@@ -7900,7 +7947,7 @@
       <c r="Z220" s="1"/>
     </row>
     <row r="221">
-      <c r="A221" s="3"/>
+      <c r="A221" s="2"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
@@ -7928,7 +7975,7 @@
       <c r="Z221" s="1"/>
     </row>
     <row r="222">
-      <c r="A222" s="3"/>
+      <c r="A222" s="2"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
@@ -7956,7 +8003,7 @@
       <c r="Z222" s="1"/>
     </row>
     <row r="223">
-      <c r="A223" s="3"/>
+      <c r="A223" s="2"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
@@ -7984,7 +8031,7 @@
       <c r="Z223" s="1"/>
     </row>
     <row r="224">
-      <c r="A224" s="3"/>
+      <c r="A224" s="2"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
@@ -8012,7 +8059,7 @@
       <c r="Z224" s="1"/>
     </row>
     <row r="225">
-      <c r="A225" s="3"/>
+      <c r="A225" s="2"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
@@ -8040,7 +8087,7 @@
       <c r="Z225" s="1"/>
     </row>
     <row r="226">
-      <c r="A226" s="3"/>
+      <c r="A226" s="2"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
@@ -8068,7 +8115,7 @@
       <c r="Z226" s="1"/>
     </row>
     <row r="227">
-      <c r="A227" s="3"/>
+      <c r="A227" s="2"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
@@ -8096,7 +8143,7 @@
       <c r="Z227" s="1"/>
     </row>
     <row r="228">
-      <c r="A228" s="3"/>
+      <c r="A228" s="2"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
@@ -8123,8 +8170,147 @@
       <c r="Y228" s="1"/>
       <c r="Z228" s="1"/>
     </row>
+    <row r="229">
+      <c r="A229" s="2"/>
+      <c r="B229" s="1"/>
+      <c r="C229" s="1"/>
+      <c r="D229" s="1"/>
+      <c r="E229" s="1"/>
+      <c r="F229" s="1"/>
+      <c r="G229" s="1"/>
+      <c r="H229" s="1"/>
+      <c r="I229" s="1"/>
+      <c r="J229" s="1"/>
+      <c r="K229" s="1"/>
+      <c r="L229" s="1"/>
+      <c r="M229" s="1"/>
+      <c r="N229" s="1"/>
+      <c r="O229" s="1"/>
+      <c r="P229" s="1"/>
+      <c r="Q229" s="1"/>
+      <c r="R229" s="1"/>
+      <c r="S229" s="1"/>
+      <c r="T229" s="1"/>
+      <c r="U229" s="1"/>
+      <c r="V229" s="1"/>
+      <c r="W229" s="1"/>
+      <c r="X229" s="1"/>
+      <c r="Y229" s="1"/>
+      <c r="Z229" s="1"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="2"/>
+      <c r="B230" s="1"/>
+      <c r="C230" s="1"/>
+      <c r="D230" s="1"/>
+      <c r="E230" s="1"/>
+      <c r="F230" s="1"/>
+      <c r="G230" s="1"/>
+      <c r="H230" s="1"/>
+      <c r="I230" s="1"/>
+      <c r="J230" s="1"/>
+      <c r="K230" s="1"/>
+      <c r="L230" s="1"/>
+      <c r="M230" s="1"/>
+      <c r="N230" s="1"/>
+      <c r="O230" s="1"/>
+      <c r="P230" s="1"/>
+      <c r="Q230" s="1"/>
+      <c r="R230" s="1"/>
+      <c r="S230" s="1"/>
+      <c r="T230" s="1"/>
+      <c r="U230" s="1"/>
+      <c r="V230" s="1"/>
+      <c r="W230" s="1"/>
+      <c r="X230" s="1"/>
+      <c r="Y230" s="1"/>
+      <c r="Z230" s="1"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="2"/>
+      <c r="B231" s="1"/>
+      <c r="C231" s="1"/>
+      <c r="D231" s="1"/>
+      <c r="E231" s="1"/>
+      <c r="F231" s="1"/>
+      <c r="G231" s="1"/>
+      <c r="H231" s="1"/>
+      <c r="I231" s="1"/>
+      <c r="J231" s="1"/>
+      <c r="K231" s="1"/>
+      <c r="L231" s="1"/>
+      <c r="M231" s="1"/>
+      <c r="N231" s="1"/>
+      <c r="O231" s="1"/>
+      <c r="P231" s="1"/>
+      <c r="Q231" s="1"/>
+      <c r="R231" s="1"/>
+      <c r="S231" s="1"/>
+      <c r="T231" s="1"/>
+      <c r="U231" s="1"/>
+      <c r="V231" s="1"/>
+      <c r="W231" s="1"/>
+      <c r="X231" s="1"/>
+      <c r="Y231" s="1"/>
+      <c r="Z231" s="1"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="2"/>
+      <c r="B232" s="1"/>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1"/>
+      <c r="E232" s="1"/>
+      <c r="F232" s="1"/>
+      <c r="G232" s="1"/>
+      <c r="H232" s="1"/>
+      <c r="I232" s="1"/>
+      <c r="J232" s="1"/>
+      <c r="K232" s="1"/>
+      <c r="L232" s="1"/>
+      <c r="M232" s="1"/>
+      <c r="N232" s="1"/>
+      <c r="O232" s="1"/>
+      <c r="P232" s="1"/>
+      <c r="Q232" s="1"/>
+      <c r="R232" s="1"/>
+      <c r="S232" s="1"/>
+      <c r="T232" s="1"/>
+      <c r="U232" s="1"/>
+      <c r="V232" s="1"/>
+      <c r="W232" s="1"/>
+      <c r="X232" s="1"/>
+      <c r="Y232" s="1"/>
+      <c r="Z232" s="1"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="2"/>
+      <c r="B233" s="1"/>
+      <c r="C233" s="1"/>
+      <c r="D233" s="1"/>
+      <c r="E233" s="1"/>
+      <c r="F233" s="1"/>
+      <c r="G233" s="1"/>
+      <c r="H233" s="1"/>
+      <c r="I233" s="1"/>
+      <c r="J233" s="1"/>
+      <c r="K233" s="1"/>
+      <c r="L233" s="1"/>
+      <c r="M233" s="1"/>
+      <c r="N233" s="1"/>
+      <c r="O233" s="1"/>
+      <c r="P233" s="1"/>
+      <c r="Q233" s="1"/>
+      <c r="R233" s="1"/>
+      <c r="S233" s="1"/>
+      <c r="T233" s="1"/>
+      <c r="U233" s="1"/>
+      <c r="V233" s="1"/>
+      <c r="W233" s="1"/>
+      <c r="X233" s="1"/>
+      <c r="Y233" s="1"/>
+      <c r="Z233" s="1"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <picture r:id="rId1"/>
 </worksheet>
 </file>
--- a/rp/Excel/Interact_交互物表.xlsx
+++ b/rp/Excel/Interact_交互物表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9015"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2129,9 +2129,9 @@
   <dimension ref="A1:Q214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G206" sqref="G206"/>
+      <selection pane="bottomLeft" activeCell="J211" sqref="J211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75"/>
@@ -2445,9 +2445,7 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" ht="27" customHeight="1" spans="1:17">
-      <c r="A12" s="2">
-        <v>8</v>
-      </c>
+      <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>24</v>
       </c>
@@ -2472,9 +2470,7 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" ht="27" customHeight="1" spans="1:17">
-      <c r="A13" s="2">
-        <v>9</v>
-      </c>
+      <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
@@ -2499,9 +2495,7 @@
       <c r="Q13" s="1"/>
     </row>
     <row r="14" ht="27" customHeight="1" spans="1:17">
-      <c r="A14" s="2">
-        <v>10</v>
-      </c>
+      <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
@@ -2526,9 +2520,7 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" ht="27" customHeight="1" spans="1:17">
-      <c r="A15" s="2">
-        <v>11</v>
-      </c>
+      <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
@@ -2553,9 +2545,7 @@
       <c r="Q15" s="1"/>
     </row>
     <row r="16" ht="27" customHeight="1" spans="1:17">
-      <c r="A16" s="2">
-        <v>12</v>
-      </c>
+      <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
@@ -2580,9 +2570,7 @@
       <c r="Q16" s="1"/>
     </row>
     <row r="17" ht="27" customHeight="1" spans="1:17">
-      <c r="A17" s="2">
-        <v>13</v>
-      </c>
+      <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
@@ -2607,9 +2595,7 @@
       <c r="Q17" s="1"/>
     </row>
     <row r="18" ht="27" customHeight="1" spans="1:17">
-      <c r="A18" s="2">
-        <v>14</v>
-      </c>
+      <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
@@ -2634,9 +2620,7 @@
       <c r="Q18" s="1"/>
     </row>
     <row r="19" ht="27" customHeight="1" spans="1:17">
-      <c r="A19" s="2">
-        <v>15</v>
-      </c>
+      <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
@@ -2661,9 +2645,7 @@
       <c r="Q19" s="1"/>
     </row>
     <row r="20" ht="27" customHeight="1" spans="1:17">
-      <c r="A20" s="2">
-        <v>16</v>
-      </c>
+      <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
@@ -2688,9 +2670,7 @@
       <c r="Q20" s="1"/>
     </row>
     <row r="21" ht="27" customHeight="1" spans="1:17">
-      <c r="A21" s="2">
-        <v>17</v>
-      </c>
+      <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
@@ -2715,9 +2695,7 @@
       <c r="Q21" s="1"/>
     </row>
     <row r="22" ht="27" customHeight="1" spans="1:17">
-      <c r="A22" s="2">
-        <v>18</v>
-      </c>
+      <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
         <v>43</v>
       </c>
@@ -2742,9 +2720,7 @@
       <c r="Q22" s="1"/>
     </row>
     <row r="23" ht="27" customHeight="1" spans="1:17">
-      <c r="A23" s="2">
-        <v>19</v>
-      </c>
+      <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
         <v>45</v>
       </c>
@@ -2769,9 +2745,7 @@
       <c r="Q23" s="1"/>
     </row>
     <row r="24" ht="27" customHeight="1" spans="1:17">
-      <c r="A24" s="2">
-        <v>20</v>
-      </c>
+      <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
         <v>47</v>
       </c>
@@ -2798,9 +2772,7 @@
       <c r="Q24" s="1"/>
     </row>
     <row r="25" ht="27" customHeight="1" spans="1:17">
-      <c r="A25" s="2">
-        <v>21</v>
-      </c>
+      <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
         <v>49</v>
       </c>
@@ -2827,9 +2799,7 @@
       <c r="Q25" s="1"/>
     </row>
     <row r="26" ht="27" customHeight="1" spans="1:17">
-      <c r="A26" s="2">
-        <v>22</v>
-      </c>
+      <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
         <v>51</v>
       </c>
@@ -2854,9 +2824,7 @@
       <c r="Q26" s="1"/>
     </row>
     <row r="27" ht="27" customHeight="1" spans="1:17">
-      <c r="A27" s="2">
-        <v>23</v>
-      </c>
+      <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
         <v>53</v>
       </c>
@@ -2881,9 +2849,7 @@
       <c r="Q27" s="1"/>
     </row>
     <row r="28" ht="27" customHeight="1" spans="1:17">
-      <c r="A28" s="2">
-        <v>24</v>
-      </c>
+      <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
         <v>55</v>
       </c>
@@ -2908,9 +2874,7 @@
       <c r="Q28" s="1"/>
     </row>
     <row r="29" ht="27" customHeight="1" spans="1:17">
-      <c r="A29" s="2">
-        <v>25</v>
-      </c>
+      <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
         <v>57</v>
       </c>
@@ -2935,9 +2899,7 @@
       <c r="Q29" s="1"/>
     </row>
     <row r="30" ht="27" customHeight="1" spans="1:17">
-      <c r="A30" s="2">
-        <v>26</v>
-      </c>
+      <c r="A30" s="2"/>
       <c r="B30" s="2">
         <v>37179069</v>
       </c>
@@ -2962,9 +2924,7 @@
       <c r="Q30" s="1"/>
     </row>
     <row r="31" ht="27" customHeight="1" spans="1:17">
-      <c r="A31" s="2">
-        <v>27</v>
-      </c>
+      <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
         <v>60</v>
       </c>
@@ -2989,9 +2949,7 @@
       <c r="Q31" s="1"/>
     </row>
     <row r="32" ht="27" customHeight="1" spans="1:17">
-      <c r="A32" s="2">
-        <v>28</v>
-      </c>
+      <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
         <v>62</v>
       </c>
@@ -3016,9 +2974,7 @@
       <c r="Q32" s="1"/>
     </row>
     <row r="33" ht="27" customHeight="1" spans="1:17">
-      <c r="A33" s="2">
-        <v>29</v>
-      </c>
+      <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
         <v>64</v>
       </c>
@@ -3043,9 +2999,7 @@
       <c r="Q33" s="1"/>
     </row>
     <row r="34" ht="27" customHeight="1" spans="1:17">
-      <c r="A34" s="2">
-        <v>30</v>
-      </c>
+      <c r="A34" s="2"/>
       <c r="B34" s="2" t="s">
         <v>66</v>
       </c>
@@ -3070,9 +3024,7 @@
       <c r="Q34" s="1"/>
     </row>
     <row r="35" ht="27" customHeight="1" spans="1:17">
-      <c r="A35" s="2">
-        <v>31</v>
-      </c>
+      <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
         <v>68</v>
       </c>
@@ -3097,9 +3049,7 @@
       <c r="Q35" s="1"/>
     </row>
     <row r="36" ht="27" customHeight="1" spans="1:17">
-      <c r="A36" s="2">
-        <v>32</v>
-      </c>
+      <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
         <v>70</v>
       </c>
@@ -3124,9 +3074,7 @@
       <c r="Q36" s="1"/>
     </row>
     <row r="37" ht="27" customHeight="1" spans="1:17">
-      <c r="A37" s="2">
-        <v>33</v>
-      </c>
+      <c r="A37" s="2"/>
       <c r="B37" s="2" t="s">
         <v>72</v>
       </c>
@@ -3151,9 +3099,7 @@
       <c r="Q37" s="1"/>
     </row>
     <row r="38" ht="27" customHeight="1" spans="1:17">
-      <c r="A38" s="2">
-        <v>34</v>
-      </c>
+      <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
         <v>74</v>
       </c>
@@ -3178,9 +3124,7 @@
       <c r="Q38" s="1"/>
     </row>
     <row r="39" ht="27" customHeight="1" spans="1:17">
-      <c r="A39" s="2">
-        <v>35</v>
-      </c>
+      <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
         <v>76</v>
       </c>
@@ -3205,9 +3149,7 @@
       <c r="Q39" s="1"/>
     </row>
     <row r="40" ht="27" customHeight="1" spans="1:17">
-      <c r="A40" s="2">
-        <v>36</v>
-      </c>
+      <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
         <v>78</v>
       </c>
@@ -3232,9 +3174,7 @@
       <c r="Q40" s="1"/>
     </row>
     <row r="41" ht="27" customHeight="1" spans="1:17">
-      <c r="A41" s="2">
-        <v>37</v>
-      </c>
+      <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
         <v>80</v>
       </c>
@@ -3259,9 +3199,7 @@
       <c r="Q41" s="1"/>
     </row>
     <row r="42" ht="27" customHeight="1" spans="1:17">
-      <c r="A42" s="2">
-        <v>38</v>
-      </c>
+      <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
         <v>82</v>
       </c>
@@ -3286,9 +3224,7 @@
       <c r="Q42" s="1"/>
     </row>
     <row r="43" ht="27" customHeight="1" spans="1:17">
-      <c r="A43" s="2">
-        <v>39</v>
-      </c>
+      <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
         <v>84</v>
       </c>
@@ -3313,9 +3249,7 @@
       <c r="Q43" s="1"/>
     </row>
     <row r="44" ht="27" customHeight="1" spans="1:17">
-      <c r="A44" s="2">
-        <v>40</v>
-      </c>
+      <c r="A44" s="2"/>
       <c r="B44" s="2" t="s">
         <v>85</v>
       </c>
@@ -3340,9 +3274,7 @@
       <c r="Q44" s="1"/>
     </row>
     <row r="45" ht="27" customHeight="1" spans="1:17">
-      <c r="A45" s="2">
-        <v>41</v>
-      </c>
+      <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
         <v>86</v>
       </c>
@@ -3367,9 +3299,7 @@
       <c r="Q45" s="1"/>
     </row>
     <row r="46" ht="27" customHeight="1" spans="1:17">
-      <c r="A46" s="2">
-        <v>42</v>
-      </c>
+      <c r="A46" s="2"/>
       <c r="B46" s="2">
         <v>16726419</v>
       </c>
@@ -3394,9 +3324,7 @@
       <c r="Q46" s="1"/>
     </row>
     <row r="47" ht="27" customHeight="1" spans="1:17">
-      <c r="A47" s="2">
-        <v>43</v>
-      </c>
+      <c r="A47" s="2"/>
       <c r="B47" s="2" t="s">
         <v>88</v>
       </c>
@@ -3421,9 +3349,7 @@
       <c r="Q47" s="1"/>
     </row>
     <row r="48" ht="27" customHeight="1" spans="1:17">
-      <c r="A48" s="2">
-        <v>44</v>
-      </c>
+      <c r="A48" s="2"/>
       <c r="B48" s="2" t="s">
         <v>90</v>
       </c>
@@ -3448,9 +3374,7 @@
       <c r="Q48" s="1"/>
     </row>
     <row r="49" ht="27" customHeight="1" spans="1:17">
-      <c r="A49" s="2">
-        <v>45</v>
-      </c>
+      <c r="A49" s="2"/>
       <c r="B49" s="2" t="s">
         <v>92</v>
       </c>
@@ -3477,9 +3401,7 @@
       <c r="Q49" s="1"/>
     </row>
     <row r="50" ht="27" customHeight="1" spans="1:17">
-      <c r="A50" s="2">
-        <v>46</v>
-      </c>
+      <c r="A50" s="2"/>
       <c r="B50" s="2" t="s">
         <v>94</v>
       </c>
@@ -3504,9 +3426,7 @@
       <c r="Q50" s="1"/>
     </row>
     <row r="51" ht="27" customHeight="1" spans="1:17">
-      <c r="A51" s="2">
-        <v>47</v>
-      </c>
+      <c r="A51" s="2"/>
       <c r="B51" s="2" t="s">
         <v>96</v>
       </c>
@@ -3531,9 +3451,7 @@
       <c r="Q51" s="1"/>
     </row>
     <row r="52" ht="27" customHeight="1" spans="1:17">
-      <c r="A52" s="2">
-        <v>48</v>
-      </c>
+      <c r="A52" s="2"/>
       <c r="B52" s="2" t="s">
         <v>98</v>
       </c>
@@ -3560,9 +3478,7 @@
       <c r="Q52" s="1"/>
     </row>
     <row r="53" ht="27" customHeight="1" spans="1:17">
-      <c r="A53" s="2">
-        <v>49</v>
-      </c>
+      <c r="A53" s="2"/>
       <c r="B53" s="2" t="s">
         <v>100</v>
       </c>
@@ -3589,9 +3505,7 @@
       <c r="Q53" s="1"/>
     </row>
     <row r="54" ht="27" customHeight="1" spans="1:17">
-      <c r="A54" s="2">
-        <v>50</v>
-      </c>
+      <c r="A54" s="2"/>
       <c r="B54" s="2" t="s">
         <v>102</v>
       </c>
@@ -3618,9 +3532,7 @@
       <c r="Q54" s="1"/>
     </row>
     <row r="55" ht="27" customHeight="1" spans="1:17">
-      <c r="A55" s="2">
-        <v>51</v>
-      </c>
+      <c r="A55" s="2"/>
       <c r="B55" s="2" t="s">
         <v>104</v>
       </c>
@@ -3647,9 +3559,7 @@
       <c r="Q55" s="1"/>
     </row>
     <row r="56" ht="27" customHeight="1" spans="1:17">
-      <c r="A56" s="2">
-        <v>52</v>
-      </c>
+      <c r="A56" s="2"/>
       <c r="B56" s="2">
         <v>20002110</v>
       </c>
@@ -3674,9 +3584,7 @@
       <c r="Q56" s="1"/>
     </row>
     <row r="57" ht="27" customHeight="1" spans="1:17">
-      <c r="A57" s="2">
-        <v>53</v>
-      </c>
+      <c r="A57" s="2"/>
       <c r="B57" s="2" t="s">
         <v>107</v>
       </c>
@@ -3703,9 +3611,7 @@
       <c r="Q57" s="1"/>
     </row>
     <row r="58" ht="27" customHeight="1" spans="1:17">
-      <c r="A58" s="2">
-        <v>54</v>
-      </c>
+      <c r="A58" s="2"/>
       <c r="B58" s="2" t="s">
         <v>109</v>
       </c>
@@ -3730,9 +3636,7 @@
       <c r="Q58" s="1"/>
     </row>
     <row r="59" ht="27" customHeight="1" spans="1:17">
-      <c r="A59" s="2">
-        <v>55</v>
-      </c>
+      <c r="A59" s="2"/>
       <c r="B59" s="2" t="s">
         <v>111</v>
       </c>
@@ -3759,9 +3663,7 @@
       <c r="Q59" s="1"/>
     </row>
     <row r="60" ht="27" customHeight="1" spans="1:17">
-      <c r="A60" s="2">
-        <v>56</v>
-      </c>
+      <c r="A60" s="2"/>
       <c r="B60" s="2" t="s">
         <v>113</v>
       </c>
@@ -3788,9 +3690,7 @@
       <c r="Q60" s="1"/>
     </row>
     <row r="61" ht="27" customHeight="1" spans="1:17">
-      <c r="A61" s="2">
-        <v>57</v>
-      </c>
+      <c r="A61" s="2"/>
       <c r="B61" s="2" t="s">
         <v>115</v>
       </c>
@@ -3817,9 +3717,7 @@
       <c r="Q61" s="1"/>
     </row>
     <row r="62" ht="27" customHeight="1" spans="1:17">
-      <c r="A62" s="2">
-        <v>58</v>
-      </c>
+      <c r="A62" s="2"/>
       <c r="B62" s="2" t="s">
         <v>117</v>
       </c>
@@ -3846,9 +3744,7 @@
       <c r="Q62" s="1"/>
     </row>
     <row r="63" ht="27" customHeight="1" spans="1:17">
-      <c r="A63" s="2">
-        <v>59</v>
-      </c>
+      <c r="A63" s="2"/>
       <c r="B63" s="2" t="s">
         <v>119</v>
       </c>
@@ -3875,9 +3771,7 @@
       <c r="Q63" s="1"/>
     </row>
     <row r="64" ht="27" customHeight="1" spans="1:17">
-      <c r="A64" s="2">
-        <v>60</v>
-      </c>
+      <c r="A64" s="2"/>
       <c r="B64" s="2" t="s">
         <v>121</v>
       </c>
@@ -3904,9 +3798,7 @@
       <c r="Q64" s="1"/>
     </row>
     <row r="65" ht="27" customHeight="1" spans="1:17">
-      <c r="A65" s="2">
-        <v>61</v>
-      </c>
+      <c r="A65" s="2"/>
       <c r="B65" s="2" t="s">
         <v>123</v>
       </c>
@@ -3933,9 +3825,7 @@
       <c r="Q65" s="1"/>
     </row>
     <row r="66" ht="27" customHeight="1" spans="1:17">
-      <c r="A66" s="2">
-        <v>62</v>
-      </c>
+      <c r="A66" s="2"/>
       <c r="B66" s="2" t="s">
         <v>125</v>
       </c>
@@ -3962,9 +3852,7 @@
       <c r="Q66" s="1"/>
     </row>
     <row r="67" ht="27" customHeight="1" spans="1:17">
-      <c r="A67" s="2">
-        <v>63</v>
-      </c>
+      <c r="A67" s="2"/>
       <c r="B67" s="2" t="s">
         <v>127</v>
       </c>
@@ -3989,9 +3877,7 @@
       <c r="Q67" s="1"/>
     </row>
     <row r="68" ht="27" customHeight="1" spans="1:17">
-      <c r="A68" s="2">
-        <v>64</v>
-      </c>
+      <c r="A68" s="2"/>
       <c r="B68" s="2" t="s">
         <v>128</v>
       </c>
@@ -4016,9 +3902,7 @@
       <c r="Q68" s="1"/>
     </row>
     <row r="69" ht="27" customHeight="1" spans="1:17">
-      <c r="A69" s="2">
-        <v>65</v>
-      </c>
+      <c r="A69" s="2"/>
       <c r="B69" s="2" t="s">
         <v>130</v>
       </c>
@@ -4043,9 +3927,7 @@
       <c r="Q69" s="1"/>
     </row>
     <row r="70" ht="27" customHeight="1" spans="1:17">
-      <c r="A70" s="2">
-        <v>66</v>
-      </c>
+      <c r="A70" s="2"/>
       <c r="B70" s="2" t="s">
         <v>132</v>
       </c>
@@ -4070,9 +3952,7 @@
       <c r="Q70" s="1"/>
     </row>
     <row r="71" ht="27" customHeight="1" spans="1:17">
-      <c r="A71" s="2">
-        <v>67</v>
-      </c>
+      <c r="A71" s="2"/>
       <c r="B71" s="2" t="s">
         <v>134</v>
       </c>
@@ -4097,9 +3977,7 @@
       <c r="Q71" s="1"/>
     </row>
     <row r="72" ht="27" customHeight="1" spans="1:17">
-      <c r="A72" s="2">
-        <v>68</v>
-      </c>
+      <c r="A72" s="2"/>
       <c r="B72" s="2" t="s">
         <v>135</v>
       </c>
@@ -4124,9 +4002,7 @@
       <c r="Q72" s="1"/>
     </row>
     <row r="73" ht="27" customHeight="1" spans="1:17">
-      <c r="A73" s="2">
-        <v>69</v>
-      </c>
+      <c r="A73" s="2"/>
       <c r="B73" s="2" t="s">
         <v>136</v>
       </c>
@@ -4151,9 +4027,7 @@
       <c r="Q73" s="1"/>
     </row>
     <row r="74" ht="27" customHeight="1" spans="1:17">
-      <c r="A74" s="2">
-        <v>70</v>
-      </c>
+      <c r="A74" s="2"/>
       <c r="B74" s="2" t="s">
         <v>137</v>
       </c>
@@ -4178,9 +4052,7 @@
       <c r="Q74" s="1"/>
     </row>
     <row r="75" ht="25" customHeight="1" spans="1:17">
-      <c r="A75" s="2">
-        <v>71</v>
-      </c>
+      <c r="A75" s="2"/>
       <c r="B75" s="1" t="s">
         <v>139</v>
       </c>
@@ -4205,9 +4077,7 @@
       <c r="Q75" s="1"/>
     </row>
     <row r="76" ht="25" customHeight="1" spans="1:17">
-      <c r="A76" s="2">
-        <v>72</v>
-      </c>
+      <c r="A76" s="2"/>
       <c r="B76" s="1" t="s">
         <v>141</v>
       </c>
@@ -4232,9 +4102,7 @@
       <c r="Q76" s="1"/>
     </row>
     <row r="77" ht="25" customHeight="1" spans="1:17">
-      <c r="A77" s="2">
-        <v>73</v>
-      </c>
+      <c r="A77" s="2"/>
       <c r="B77" s="1" t="s">
         <v>142</v>
       </c>
@@ -4259,9 +4127,7 @@
       <c r="Q77" s="1"/>
     </row>
     <row r="78" ht="25" customHeight="1" spans="1:17">
-      <c r="A78" s="2">
-        <v>74</v>
-      </c>
+      <c r="A78" s="2"/>
       <c r="B78" s="1" t="s">
         <v>144</v>
       </c>
@@ -4286,9 +4152,7 @@
       <c r="Q78" s="1"/>
     </row>
     <row r="79" ht="25" customHeight="1" spans="1:17">
-      <c r="A79" s="2">
-        <v>75</v>
-      </c>
+      <c r="A79" s="2"/>
       <c r="B79" s="1" t="s">
         <v>146</v>
       </c>
@@ -4313,9 +4177,7 @@
       <c r="Q79" s="1"/>
     </row>
     <row r="80" ht="25" customHeight="1" spans="1:17">
-      <c r="A80" s="2">
-        <v>76</v>
-      </c>
+      <c r="A80" s="2"/>
       <c r="B80" s="1" t="s">
         <v>148</v>
       </c>
@@ -4340,9 +4202,7 @@
       <c r="Q80" s="1"/>
     </row>
     <row r="81" ht="25" customHeight="1" spans="1:17">
-      <c r="A81" s="2">
-        <v>77</v>
-      </c>
+      <c r="A81" s="2"/>
       <c r="B81" s="1" t="s">
         <v>150</v>
       </c>
@@ -4367,9 +4227,7 @@
       <c r="Q81" s="1"/>
     </row>
     <row r="82" ht="25" customHeight="1" spans="1:17">
-      <c r="A82" s="2">
-        <v>78</v>
-      </c>
+      <c r="A82" s="2"/>
       <c r="B82" s="1" t="s">
         <v>152</v>
       </c>
@@ -4394,9 +4252,7 @@
       <c r="Q82" s="1"/>
     </row>
     <row r="83" ht="25" customHeight="1" spans="1:17">
-      <c r="A83" s="2">
-        <v>79</v>
-      </c>
+      <c r="A83" s="2"/>
       <c r="B83" s="1" t="s">
         <v>154</v>
       </c>
@@ -4421,9 +4277,7 @@
       <c r="Q83" s="1"/>
     </row>
     <row r="84" ht="23" customHeight="1" spans="1:17">
-      <c r="A84" s="2">
-        <v>80</v>
-      </c>
+      <c r="A84" s="2"/>
       <c r="B84" s="3" t="s">
         <v>156</v>
       </c>
@@ -4448,9 +4302,7 @@
       <c r="Q84" s="1"/>
     </row>
     <row r="85" ht="23" customHeight="1" spans="1:17">
-      <c r="A85" s="2">
-        <v>81</v>
-      </c>
+      <c r="A85" s="2"/>
       <c r="B85" s="1" t="s">
         <v>158</v>
       </c>
@@ -4475,9 +4327,7 @@
       <c r="Q85" s="1"/>
     </row>
     <row r="86" ht="23" customHeight="1" spans="1:17">
-      <c r="A86" s="2">
-        <v>82</v>
-      </c>
+      <c r="A86" s="2"/>
       <c r="B86" s="1" t="s">
         <v>160</v>
       </c>
@@ -4502,9 +4352,7 @@
       <c r="Q86" s="1"/>
     </row>
     <row r="87" ht="23" customHeight="1" spans="1:17">
-      <c r="A87" s="2">
-        <v>83</v>
-      </c>
+      <c r="A87" s="2"/>
       <c r="B87" s="1" t="s">
         <v>162</v>
       </c>
@@ -4529,9 +4377,7 @@
       <c r="Q87" s="1"/>
     </row>
     <row r="88" ht="23" customHeight="1" spans="1:17">
-      <c r="A88" s="2">
-        <v>84</v>
-      </c>
+      <c r="A88" s="2"/>
       <c r="B88" s="1" t="s">
         <v>164</v>
       </c>
@@ -4556,9 +4402,7 @@
       <c r="Q88" s="1"/>
     </row>
     <row r="89" ht="23" customHeight="1" spans="1:17">
-      <c r="A89" s="2">
-        <v>85</v>
-      </c>
+      <c r="A89" s="2"/>
       <c r="B89" s="1" t="s">
         <v>166</v>
       </c>
@@ -4583,9 +4427,7 @@
       <c r="Q89" s="1"/>
     </row>
     <row r="90" ht="23" customHeight="1" spans="1:17">
-      <c r="A90" s="2">
-        <v>86</v>
-      </c>
+      <c r="A90" s="2"/>
       <c r="B90" s="1" t="s">
         <v>168</v>
       </c>
@@ -4610,9 +4452,7 @@
       <c r="Q90" s="1"/>
     </row>
     <row r="91" ht="23" customHeight="1" spans="1:17">
-      <c r="A91" s="2">
-        <v>87</v>
-      </c>
+      <c r="A91" s="2"/>
       <c r="B91" s="1" t="s">
         <v>170</v>
       </c>
@@ -4637,9 +4477,7 @@
       <c r="Q91" s="1"/>
     </row>
     <row r="92" ht="23" customHeight="1" spans="1:17">
-      <c r="A92" s="2">
-        <v>88</v>
-      </c>
+      <c r="A92" s="2"/>
       <c r="B92" s="1" t="s">
         <v>172</v>
       </c>
@@ -4664,9 +4502,7 @@
       <c r="Q92" s="1"/>
     </row>
     <row r="93" ht="23" customHeight="1" spans="1:17">
-      <c r="A93" s="2">
-        <v>89</v>
-      </c>
+      <c r="A93" s="2"/>
       <c r="B93" s="1" t="s">
         <v>174</v>
       </c>
@@ -4691,9 +4527,7 @@
       <c r="Q93" s="1"/>
     </row>
     <row r="94" ht="23" customHeight="1" spans="1:17">
-      <c r="A94" s="2">
-        <v>90</v>
-      </c>
+      <c r="A94" s="2"/>
       <c r="B94" s="1" t="s">
         <v>176</v>
       </c>
@@ -4718,9 +4552,7 @@
       <c r="Q94" s="1"/>
     </row>
     <row r="95" ht="23" customHeight="1" spans="1:17">
-      <c r="A95" s="2">
-        <v>91</v>
-      </c>
+      <c r="A95" s="2"/>
       <c r="B95" s="1" t="s">
         <v>177</v>
       </c>
@@ -4745,9 +4577,7 @@
       <c r="Q95" s="1"/>
     </row>
     <row r="96" ht="23" customHeight="1" spans="1:17">
-      <c r="A96" s="2">
-        <v>92</v>
-      </c>
+      <c r="A96" s="2"/>
       <c r="B96" s="1" t="s">
         <v>179</v>
       </c>
@@ -4772,9 +4602,7 @@
       <c r="Q96" s="1"/>
     </row>
     <row r="97" ht="23" customHeight="1" spans="1:17">
-      <c r="A97" s="2">
-        <v>93</v>
-      </c>
+      <c r="A97" s="2"/>
       <c r="B97" s="1" t="s">
         <v>181</v>
       </c>
@@ -4799,9 +4627,7 @@
       <c r="Q97" s="1"/>
     </row>
     <row r="98" ht="23" customHeight="1" spans="1:17">
-      <c r="A98" s="2">
-        <v>94</v>
-      </c>
+      <c r="A98" s="2"/>
       <c r="B98" s="1" t="s">
         <v>183</v>
       </c>
@@ -4826,9 +4652,7 @@
       <c r="Q98" s="1"/>
     </row>
     <row r="99" ht="23" customHeight="1" spans="1:17">
-      <c r="A99" s="2">
-        <v>95</v>
-      </c>
+      <c r="A99" s="2"/>
       <c r="B99" s="1" t="s">
         <v>185</v>
       </c>
@@ -4853,9 +4677,7 @@
       <c r="Q99" s="1"/>
     </row>
     <row r="100" ht="23" customHeight="1" spans="1:17">
-      <c r="A100" s="2">
-        <v>96</v>
-      </c>
+      <c r="A100" s="2"/>
       <c r="B100" s="1" t="s">
         <v>187</v>
       </c>
@@ -4880,9 +4702,7 @@
       <c r="Q100" s="1"/>
     </row>
     <row r="101" ht="23" customHeight="1" spans="1:17">
-      <c r="A101" s="2">
-        <v>97</v>
-      </c>
+      <c r="A101" s="2"/>
       <c r="B101" s="1" t="s">
         <v>189</v>
       </c>
@@ -4907,9 +4727,7 @@
       <c r="Q101" s="1"/>
     </row>
     <row r="102" ht="23" customHeight="1" spans="1:17">
-      <c r="A102" s="2">
-        <v>98</v>
-      </c>
+      <c r="A102" s="2"/>
       <c r="B102" s="1" t="s">
         <v>191</v>
       </c>
@@ -4934,9 +4752,7 @@
       <c r="Q102" s="1"/>
     </row>
     <row r="103" ht="23" customHeight="1" spans="1:17">
-      <c r="A103" s="2">
-        <v>99</v>
-      </c>
+      <c r="A103" s="2"/>
       <c r="B103" s="1" t="s">
         <v>193</v>
       </c>
@@ -4961,9 +4777,7 @@
       <c r="Q103" s="1"/>
     </row>
     <row r="104" ht="23" customHeight="1" spans="1:17">
-      <c r="A104" s="2">
-        <v>100</v>
-      </c>
+      <c r="A104" s="2"/>
       <c r="B104" s="1" t="s">
         <v>195</v>
       </c>
@@ -4990,9 +4804,7 @@
       <c r="Q104" s="1"/>
     </row>
     <row r="105" ht="23" customHeight="1" spans="1:17">
-      <c r="A105" s="2">
-        <v>101</v>
-      </c>
+      <c r="A105" s="2"/>
       <c r="B105" s="1" t="s">
         <v>197</v>
       </c>
@@ -5017,9 +4829,7 @@
       <c r="Q105" s="1"/>
     </row>
     <row r="106" ht="23" customHeight="1" spans="1:17">
-      <c r="A106" s="2">
-        <v>102</v>
-      </c>
+      <c r="A106" s="2"/>
       <c r="B106" s="1" t="s">
         <v>199</v>
       </c>
@@ -5044,9 +4854,7 @@
       <c r="Q106" s="1"/>
     </row>
     <row r="107" ht="23" customHeight="1" spans="1:17">
-      <c r="A107" s="2">
-        <v>103</v>
-      </c>
+      <c r="A107" s="2"/>
       <c r="B107" s="1" t="s">
         <v>201</v>
       </c>
@@ -5071,9 +4879,7 @@
       <c r="Q107" s="1"/>
     </row>
     <row r="108" ht="23" customHeight="1" spans="1:17">
-      <c r="A108" s="2">
-        <v>104</v>
-      </c>
+      <c r="A108" s="2"/>
       <c r="B108" s="1" t="s">
         <v>202</v>
       </c>
@@ -5098,9 +4904,7 @@
       <c r="Q108" s="1"/>
     </row>
     <row r="109" ht="23" customHeight="1" spans="1:17">
-      <c r="A109" s="2">
-        <v>105</v>
-      </c>
+      <c r="A109" s="2"/>
       <c r="B109" s="1" t="s">
         <v>203</v>
       </c>
@@ -5125,9 +4929,7 @@
       <c r="Q109" s="1"/>
     </row>
     <row r="110" ht="23" customHeight="1" spans="1:17">
-      <c r="A110" s="2">
-        <v>106</v>
-      </c>
+      <c r="A110" s="2"/>
       <c r="B110" s="1" t="s">
         <v>204</v>
       </c>
@@ -5152,9 +4954,7 @@
       <c r="Q110" s="1"/>
     </row>
     <row r="111" ht="23" customHeight="1" spans="1:17">
-      <c r="A111" s="2">
-        <v>107</v>
-      </c>
+      <c r="A111" s="2"/>
       <c r="B111" s="1" t="s">
         <v>206</v>
       </c>
@@ -5179,9 +4979,7 @@
       <c r="Q111" s="1"/>
     </row>
     <row r="112" ht="23" customHeight="1" spans="1:17">
-      <c r="A112" s="2">
-        <v>108</v>
-      </c>
+      <c r="A112" s="2"/>
       <c r="B112" s="1" t="s">
         <v>208</v>
       </c>
@@ -5206,9 +5004,7 @@
       <c r="Q112" s="1"/>
     </row>
     <row r="113" ht="23" customHeight="1" spans="1:17">
-      <c r="A113" s="2">
-        <v>109</v>
-      </c>
+      <c r="A113" s="2"/>
       <c r="B113" s="1" t="s">
         <v>210</v>
       </c>
@@ -5233,9 +5029,7 @@
       <c r="Q113" s="1"/>
     </row>
     <row r="114" ht="23" customHeight="1" spans="1:17">
-      <c r="A114" s="2">
-        <v>110</v>
-      </c>
+      <c r="A114" s="2"/>
       <c r="B114" s="1" t="s">
         <v>212</v>
       </c>
@@ -5260,9 +5054,7 @@
       <c r="Q114" s="1"/>
     </row>
     <row r="115" ht="23" customHeight="1" spans="1:17">
-      <c r="A115" s="2">
-        <v>111</v>
-      </c>
+      <c r="A115" s="2"/>
       <c r="B115" s="1" t="s">
         <v>213</v>
       </c>
@@ -5287,9 +5079,7 @@
       <c r="Q115" s="1"/>
     </row>
     <row r="116" ht="23" customHeight="1" spans="1:17">
-      <c r="A116" s="2">
-        <v>112</v>
-      </c>
+      <c r="A116" s="2"/>
       <c r="B116" s="1" t="s">
         <v>215</v>
       </c>
@@ -5314,9 +5104,7 @@
       <c r="Q116" s="1"/>
     </row>
     <row r="117" ht="23" customHeight="1" spans="1:17">
-      <c r="A117" s="2">
-        <v>113</v>
-      </c>
+      <c r="A117" s="2"/>
       <c r="B117" s="1" t="s">
         <v>216</v>
       </c>
@@ -5341,9 +5129,7 @@
       <c r="Q117" s="1"/>
     </row>
     <row r="118" ht="23" customHeight="1" spans="1:17">
-      <c r="A118" s="2">
-        <v>114</v>
-      </c>
+      <c r="A118" s="2"/>
       <c r="B118" s="1" t="s">
         <v>217</v>
       </c>
@@ -5368,9 +5154,7 @@
       <c r="Q118" s="1"/>
     </row>
     <row r="119" ht="23" customHeight="1" spans="1:17">
-      <c r="A119" s="2">
-        <v>115</v>
-      </c>
+      <c r="A119" s="2"/>
       <c r="B119" s="1" t="s">
         <v>219</v>
       </c>
@@ -5395,9 +5179,7 @@
       <c r="Q119" s="1"/>
     </row>
     <row r="120" ht="23" customHeight="1" spans="1:17">
-      <c r="A120" s="2">
-        <v>116</v>
-      </c>
+      <c r="A120" s="2"/>
       <c r="B120" s="1" t="s">
         <v>221</v>
       </c>
@@ -5422,9 +5204,7 @@
       <c r="Q120" s="1"/>
     </row>
     <row r="121" ht="23" customHeight="1" spans="1:17">
-      <c r="A121" s="2">
-        <v>117</v>
-      </c>
+      <c r="A121" s="2"/>
       <c r="B121" s="1" t="s">
         <v>223</v>
       </c>
@@ -5449,9 +5229,7 @@
       <c r="Q121" s="1"/>
     </row>
     <row r="122" ht="23" customHeight="1" spans="1:17">
-      <c r="A122" s="2">
-        <v>118</v>
-      </c>
+      <c r="A122" s="2"/>
       <c r="B122" s="1" t="s">
         <v>225</v>
       </c>
@@ -5476,9 +5254,7 @@
       <c r="Q122" s="1"/>
     </row>
     <row r="123" ht="23" customHeight="1" spans="1:17">
-      <c r="A123" s="2">
-        <v>119</v>
-      </c>
+      <c r="A123" s="2"/>
       <c r="B123" s="1" t="s">
         <v>227</v>
       </c>
@@ -5503,9 +5279,7 @@
       <c r="Q123" s="1"/>
     </row>
     <row r="124" ht="23" customHeight="1" spans="1:17">
-      <c r="A124" s="2">
-        <v>120</v>
-      </c>
+      <c r="A124" s="2"/>
       <c r="B124" s="1" t="s">
         <v>229</v>
       </c>
@@ -5530,9 +5304,7 @@
       <c r="Q124" s="1"/>
     </row>
     <row r="125" ht="23" customHeight="1" spans="1:17">
-      <c r="A125" s="2">
-        <v>121</v>
-      </c>
+      <c r="A125" s="2"/>
       <c r="B125" s="1" t="s">
         <v>231</v>
       </c>
@@ -5559,9 +5331,7 @@
       <c r="Q125" s="1"/>
     </row>
     <row r="126" ht="23" customHeight="1" spans="1:17">
-      <c r="A126" s="2">
-        <v>122</v>
-      </c>
+      <c r="A126" s="2"/>
       <c r="B126" s="1" t="s">
         <v>233</v>
       </c>
@@ -5586,9 +5356,7 @@
       <c r="Q126" s="1"/>
     </row>
     <row r="127" ht="23" customHeight="1" spans="1:17">
-      <c r="A127" s="2">
-        <v>123</v>
-      </c>
+      <c r="A127" s="2"/>
       <c r="B127" s="1" t="s">
         <v>234</v>
       </c>
@@ -5613,9 +5381,7 @@
       <c r="Q127" s="1"/>
     </row>
     <row r="128" ht="23" customHeight="1" spans="1:17">
-      <c r="A128" s="2">
-        <v>124</v>
-      </c>
+      <c r="A128" s="2"/>
       <c r="B128" s="1" t="s">
         <v>236</v>
       </c>
@@ -5640,9 +5406,7 @@
       <c r="Q128" s="1"/>
     </row>
     <row r="129" ht="23" customHeight="1" spans="1:17">
-      <c r="A129" s="2">
-        <v>125</v>
-      </c>
+      <c r="A129" s="2"/>
       <c r="B129" s="1" t="s">
         <v>237</v>
       </c>
@@ -5667,9 +5431,7 @@
       <c r="Q129" s="1"/>
     </row>
     <row r="130" ht="23" customHeight="1" spans="1:17">
-      <c r="A130" s="2">
-        <v>126</v>
-      </c>
+      <c r="A130" s="2"/>
       <c r="B130" s="1" t="s">
         <v>239</v>
       </c>
@@ -5694,9 +5456,7 @@
       <c r="Q130" s="1"/>
     </row>
     <row r="131" ht="23" customHeight="1" spans="1:17">
-      <c r="A131" s="2">
-        <v>127</v>
-      </c>
+      <c r="A131" s="2"/>
       <c r="B131" s="1" t="s">
         <v>241</v>
       </c>
@@ -5721,9 +5481,7 @@
       <c r="Q131" s="1"/>
     </row>
     <row r="132" ht="23" customHeight="1" spans="1:17">
-      <c r="A132" s="2">
-        <v>128</v>
-      </c>
+      <c r="A132" s="2"/>
       <c r="B132" s="1" t="s">
         <v>242</v>
       </c>
@@ -5748,9 +5506,7 @@
       <c r="Q132" s="1"/>
     </row>
     <row r="133" ht="23" customHeight="1" spans="1:17">
-      <c r="A133" s="2">
-        <v>129</v>
-      </c>
+      <c r="A133" s="2"/>
       <c r="B133" s="1" t="s">
         <v>243</v>
       </c>
@@ -5775,9 +5531,7 @@
       <c r="Q133" s="1"/>
     </row>
     <row r="134" ht="23" customHeight="1" spans="1:17">
-      <c r="A134" s="2">
-        <v>130</v>
-      </c>
+      <c r="A134" s="2"/>
       <c r="B134" s="1" t="s">
         <v>245</v>
       </c>
@@ -5802,9 +5556,7 @@
       <c r="Q134" s="1"/>
     </row>
     <row r="135" ht="23" customHeight="1" spans="1:17">
-      <c r="A135" s="2">
-        <v>131</v>
-      </c>
+      <c r="A135" s="2"/>
       <c r="B135" s="1" t="s">
         <v>246</v>
       </c>
@@ -5829,9 +5581,7 @@
       <c r="Q135" s="1"/>
     </row>
     <row r="136" ht="23" customHeight="1" spans="1:17">
-      <c r="A136" s="2">
-        <v>132</v>
-      </c>
+      <c r="A136" s="2"/>
       <c r="B136" s="1" t="s">
         <v>247</v>
       </c>
@@ -5856,9 +5606,7 @@
       <c r="Q136" s="1"/>
     </row>
     <row r="137" ht="23" customHeight="1" spans="1:17">
-      <c r="A137" s="2">
-        <v>133</v>
-      </c>
+      <c r="A137" s="2"/>
       <c r="B137" s="1" t="s">
         <v>248</v>
       </c>
@@ -5883,9 +5631,7 @@
       <c r="Q137" s="1"/>
     </row>
     <row r="138" ht="23" customHeight="1" spans="1:17">
-      <c r="A138" s="2">
-        <v>134</v>
-      </c>
+      <c r="A138" s="2"/>
       <c r="B138" s="1">
         <v>29259717</v>
       </c>
@@ -5910,9 +5656,7 @@
       <c r="Q138" s="1"/>
     </row>
     <row r="139" ht="23" customHeight="1" spans="1:17">
-      <c r="A139" s="2">
-        <v>135</v>
-      </c>
+      <c r="A139" s="2"/>
       <c r="B139" s="1">
         <v>18263521</v>
       </c>
@@ -5937,9 +5681,7 @@
       <c r="Q139" s="1"/>
     </row>
     <row r="140" ht="23" customHeight="1" spans="1:17">
-      <c r="A140" s="2">
-        <v>136</v>
-      </c>
+      <c r="A140" s="2"/>
       <c r="B140" s="1" t="s">
         <v>249</v>
       </c>
@@ -5964,9 +5706,7 @@
       <c r="Q140" s="1"/>
     </row>
     <row r="141" ht="23" customHeight="1" spans="1:17">
-      <c r="A141" s="2">
-        <v>137</v>
-      </c>
+      <c r="A141" s="2"/>
       <c r="B141" s="1" t="s">
         <v>250</v>
       </c>
@@ -5991,9 +5731,7 @@
       <c r="Q141" s="1"/>
     </row>
     <row r="142" ht="23" customHeight="1" spans="1:17">
-      <c r="A142" s="2">
-        <v>138</v>
-      </c>
+      <c r="A142" s="2"/>
       <c r="B142" s="1" t="s">
         <v>251</v>
       </c>
@@ -6018,9 +5756,7 @@
       <c r="Q142" s="1"/>
     </row>
     <row r="143" ht="23" customHeight="1" spans="1:17">
-      <c r="A143" s="2">
-        <v>139</v>
-      </c>
+      <c r="A143" s="2"/>
       <c r="B143" s="1" t="s">
         <v>252</v>
       </c>
@@ -6045,9 +5781,7 @@
       <c r="Q143" s="1"/>
     </row>
     <row r="144" ht="23" customHeight="1" spans="1:17">
-      <c r="A144" s="2">
-        <v>140</v>
-      </c>
+      <c r="A144" s="2"/>
       <c r="B144" s="1" t="s">
         <v>253</v>
       </c>
@@ -6072,9 +5806,7 @@
       <c r="Q144" s="1"/>
     </row>
     <row r="145" ht="23" customHeight="1" spans="1:17">
-      <c r="A145" s="2">
-        <v>141</v>
-      </c>
+      <c r="A145" s="2"/>
       <c r="B145" s="1" t="s">
         <v>254</v>
       </c>
@@ -6099,9 +5831,7 @@
       <c r="Q145" s="1"/>
     </row>
     <row r="146" ht="23" customHeight="1" spans="1:17">
-      <c r="A146" s="2">
-        <v>142</v>
-      </c>
+      <c r="A146" s="2"/>
       <c r="B146" s="1" t="s">
         <v>255</v>
       </c>
@@ -6126,9 +5856,7 @@
       <c r="Q146" s="1"/>
     </row>
     <row r="147" ht="23" customHeight="1" spans="1:17">
-      <c r="A147" s="2">
-        <v>143</v>
-      </c>
+      <c r="A147" s="2"/>
       <c r="B147" s="1" t="s">
         <v>256</v>
       </c>
@@ -6153,9 +5881,7 @@
       <c r="Q147" s="1"/>
     </row>
     <row r="148" ht="23" customHeight="1" spans="1:17">
-      <c r="A148" s="2">
-        <v>144</v>
-      </c>
+      <c r="A148" s="2"/>
       <c r="B148" s="1" t="s">
         <v>257</v>
       </c>
@@ -6180,9 +5906,7 @@
       <c r="Q148" s="1"/>
     </row>
     <row r="149" ht="23" customHeight="1" spans="1:17">
-      <c r="A149" s="2">
-        <v>145</v>
-      </c>
+      <c r="A149" s="2"/>
       <c r="B149" s="1" t="s">
         <v>258</v>
       </c>
@@ -6207,9 +5931,7 @@
       <c r="Q149" s="1"/>
     </row>
     <row r="150" ht="23" customHeight="1" spans="1:17">
-      <c r="A150" s="2">
-        <v>146</v>
-      </c>
+      <c r="A150" s="2"/>
       <c r="B150" s="1" t="s">
         <v>259</v>
       </c>
@@ -6234,9 +5956,7 @@
       <c r="Q150" s="1"/>
     </row>
     <row r="151" ht="23" customHeight="1" spans="1:17">
-      <c r="A151" s="2">
-        <v>147</v>
-      </c>
+      <c r="A151" s="2"/>
       <c r="B151" s="1" t="s">
         <v>260</v>
       </c>
@@ -6261,9 +5981,7 @@
       <c r="Q151" s="1"/>
     </row>
     <row r="152" ht="23" customHeight="1" spans="1:17">
-      <c r="A152" s="2">
-        <v>148</v>
-      </c>
+      <c r="A152" s="2"/>
       <c r="B152" s="1" t="s">
         <v>262</v>
       </c>
@@ -6288,9 +6006,7 @@
       <c r="Q152" s="1"/>
     </row>
     <row r="153" ht="23" customHeight="1" spans="1:17">
-      <c r="A153" s="2">
-        <v>149</v>
-      </c>
+      <c r="A153" s="2"/>
       <c r="B153" s="1" t="s">
         <v>263</v>
       </c>
@@ -6315,9 +6031,7 @@
       <c r="Q153" s="1"/>
     </row>
     <row r="154" ht="23" customHeight="1" spans="1:17">
-      <c r="A154" s="2">
-        <v>150</v>
-      </c>
+      <c r="A154" s="2"/>
       <c r="B154" s="1" t="s">
         <v>264</v>
       </c>
@@ -6342,9 +6056,7 @@
       <c r="Q154" s="1"/>
     </row>
     <row r="155" ht="23" customHeight="1" spans="1:17">
-      <c r="A155" s="2">
-        <v>151</v>
-      </c>
+      <c r="A155" s="2"/>
       <c r="B155" s="1" t="s">
         <v>265</v>
       </c>
@@ -6369,9 +6081,7 @@
       <c r="Q155" s="1"/>
     </row>
     <row r="156" ht="23" customHeight="1" spans="1:17">
-      <c r="A156" s="2">
-        <v>152</v>
-      </c>
+      <c r="A156" s="2"/>
       <c r="B156" s="1" t="s">
         <v>266</v>
       </c>
@@ -6396,9 +6106,7 @@
       <c r="Q156" s="1"/>
     </row>
     <row r="157" ht="23" customHeight="1" spans="1:17">
-      <c r="A157" s="2">
-        <v>153</v>
-      </c>
+      <c r="A157" s="2"/>
       <c r="B157" s="1" t="s">
         <v>267</v>
       </c>
@@ -6423,9 +6131,7 @@
       <c r="Q157" s="1"/>
     </row>
     <row r="158" ht="23" customHeight="1" spans="1:17">
-      <c r="A158" s="2">
-        <v>154</v>
-      </c>
+      <c r="A158" s="2"/>
       <c r="B158" s="1" t="s">
         <v>268</v>
       </c>
@@ -6450,9 +6156,7 @@
       <c r="Q158" s="1"/>
     </row>
     <row r="159" ht="23" customHeight="1" spans="1:17">
-      <c r="A159" s="2">
-        <v>155</v>
-      </c>
+      <c r="A159" s="2"/>
       <c r="B159" s="1" t="s">
         <v>269</v>
       </c>
@@ -6477,9 +6181,7 @@
       <c r="Q159" s="1"/>
     </row>
     <row r="160" ht="23" customHeight="1" spans="1:17">
-      <c r="A160" s="2">
-        <v>156</v>
-      </c>
+      <c r="A160" s="2"/>
       <c r="B160" s="1" t="s">
         <v>270</v>
       </c>
@@ -6506,9 +6208,7 @@
       <c r="Q160" s="1"/>
     </row>
     <row r="161" ht="23" customHeight="1" spans="1:17">
-      <c r="A161" s="2">
-        <v>157</v>
-      </c>
+      <c r="A161" s="2"/>
       <c r="B161" s="1" t="s">
         <v>273</v>
       </c>
@@ -6533,9 +6233,7 @@
       <c r="Q161" s="1"/>
     </row>
     <row r="162" ht="23" customHeight="1" spans="1:17">
-      <c r="A162" s="2">
-        <v>158</v>
-      </c>
+      <c r="A162" s="2"/>
       <c r="B162" s="1" t="s">
         <v>275</v>
       </c>
@@ -6562,9 +6260,7 @@
       <c r="Q162" s="1"/>
     </row>
     <row r="163" ht="23" customHeight="1" spans="1:17">
-      <c r="A163" s="2">
-        <v>159</v>
-      </c>
+      <c r="A163" s="2"/>
       <c r="B163" s="1" t="s">
         <v>277</v>
       </c>
@@ -6591,9 +6287,7 @@
       <c r="Q163" s="1"/>
     </row>
     <row r="164" ht="23" customHeight="1" spans="1:17">
-      <c r="A164" s="2">
-        <v>160</v>
-      </c>
+      <c r="A164" s="2"/>
       <c r="B164" s="1" t="s">
         <v>279</v>
       </c>
@@ -6620,9 +6314,7 @@
       <c r="Q164" s="1"/>
     </row>
     <row r="165" ht="23" customHeight="1" spans="1:17">
-      <c r="A165" s="2">
-        <v>161</v>
-      </c>
+      <c r="A165" s="2"/>
       <c r="B165" s="1" t="s">
         <v>281</v>
       </c>
@@ -6649,9 +6341,7 @@
       <c r="Q165" s="1"/>
     </row>
     <row r="166" ht="23" customHeight="1" spans="1:17">
-      <c r="A166" s="2">
-        <v>162</v>
-      </c>
+      <c r="A166" s="2"/>
       <c r="B166" s="1" t="s">
         <v>283</v>
       </c>
@@ -6678,9 +6368,7 @@
       <c r="Q166" s="1"/>
     </row>
     <row r="167" ht="23" customHeight="1" spans="1:17">
-      <c r="A167" s="2">
-        <v>163</v>
-      </c>
+      <c r="A167" s="2"/>
       <c r="B167" s="1" t="s">
         <v>285</v>
       </c>
@@ -6707,9 +6395,7 @@
       <c r="Q167" s="1"/>
     </row>
     <row r="168" ht="23" customHeight="1" spans="1:17">
-      <c r="A168" s="2">
-        <v>164</v>
-      </c>
+      <c r="A168" s="2"/>
       <c r="B168" s="1" t="s">
         <v>287</v>
       </c>
@@ -6736,9 +6422,7 @@
       <c r="Q168" s="1"/>
     </row>
     <row r="169" ht="23" customHeight="1" spans="1:17">
-      <c r="A169" s="2">
-        <v>165</v>
-      </c>
+      <c r="A169" s="2"/>
       <c r="B169" s="1" t="s">
         <v>289</v>
       </c>
@@ -6765,9 +6449,7 @@
       <c r="Q169" s="1"/>
     </row>
     <row r="170" ht="23" customHeight="1" spans="1:17">
-      <c r="A170" s="2">
-        <v>166</v>
-      </c>
+      <c r="A170" s="2"/>
       <c r="B170" s="1" t="s">
         <v>291</v>
       </c>
@@ -6794,9 +6476,7 @@
       <c r="Q170" s="1"/>
     </row>
     <row r="171" ht="23" customHeight="1" spans="1:17">
-      <c r="A171" s="2">
-        <v>167</v>
-      </c>
+      <c r="A171" s="2"/>
       <c r="B171" s="1" t="s">
         <v>293</v>
       </c>
@@ -6823,9 +6503,7 @@
       <c r="Q171" s="1"/>
     </row>
     <row r="172" ht="23" customHeight="1" spans="1:17">
-      <c r="A172" s="2">
-        <v>168</v>
-      </c>
+      <c r="A172" s="2"/>
       <c r="B172" s="1" t="s">
         <v>295</v>
       </c>
@@ -6852,9 +6530,7 @@
       <c r="Q172" s="1"/>
     </row>
     <row r="173" ht="23" customHeight="1" spans="1:17">
-      <c r="A173" s="2">
-        <v>169</v>
-      </c>
+      <c r="A173" s="2"/>
       <c r="B173" s="1" t="s">
         <v>297</v>
       </c>
@@ -6881,9 +6557,7 @@
       <c r="Q173" s="1"/>
     </row>
     <row r="174" ht="23" customHeight="1" spans="1:17">
-      <c r="A174" s="2">
-        <v>170</v>
-      </c>
+      <c r="A174" s="2"/>
       <c r="B174" s="1" t="s">
         <v>299</v>
       </c>
@@ -6910,9 +6584,7 @@
       <c r="Q174" s="1"/>
     </row>
     <row r="175" ht="23" customHeight="1" spans="1:17">
-      <c r="A175" s="2">
-        <v>171</v>
-      </c>
+      <c r="A175" s="2"/>
       <c r="B175" s="1" t="s">
         <v>301</v>
       </c>
@@ -6939,9 +6611,7 @@
       <c r="Q175" s="1"/>
     </row>
     <row r="176" ht="23" customHeight="1" spans="1:17">
-      <c r="A176" s="2">
-        <v>172</v>
-      </c>
+      <c r="A176" s="2"/>
       <c r="B176" s="1" t="s">
         <v>303</v>
       </c>
@@ -6968,9 +6638,7 @@
       <c r="Q176" s="1"/>
     </row>
     <row r="177" ht="23" customHeight="1" spans="1:17">
-      <c r="A177" s="2">
-        <v>173</v>
-      </c>
+      <c r="A177" s="2"/>
       <c r="B177" s="1" t="s">
         <v>305</v>
       </c>
@@ -6997,9 +6665,7 @@
       <c r="Q177" s="1"/>
     </row>
     <row r="178" ht="23" customHeight="1" spans="1:17">
-      <c r="A178" s="2">
-        <v>174</v>
-      </c>
+      <c r="A178" s="2"/>
       <c r="B178" s="1" t="s">
         <v>307</v>
       </c>
@@ -7026,9 +6692,7 @@
       <c r="Q178" s="1"/>
     </row>
     <row r="179" ht="23" customHeight="1" spans="1:17">
-      <c r="A179" s="2">
-        <v>175</v>
-      </c>
+      <c r="A179" s="2"/>
       <c r="B179" s="1" t="s">
         <v>309</v>
       </c>
@@ -7055,9 +6719,7 @@
       <c r="Q179" s="1"/>
     </row>
     <row r="180" ht="23" customHeight="1" spans="1:17">
-      <c r="A180" s="2">
-        <v>176</v>
-      </c>
+      <c r="A180" s="2"/>
       <c r="B180" s="1" t="s">
         <v>311</v>
       </c>
@@ -7084,9 +6746,7 @@
       <c r="Q180" s="1"/>
     </row>
     <row r="181" ht="23" customHeight="1" spans="1:17">
-      <c r="A181" s="2">
-        <v>177</v>
-      </c>
+      <c r="A181" s="2"/>
       <c r="B181" s="1" t="s">
         <v>313</v>
       </c>
@@ -7113,9 +6773,7 @@
       <c r="Q181" s="1"/>
     </row>
     <row r="182" ht="23" customHeight="1" spans="1:17">
-      <c r="A182" s="2">
-        <v>178</v>
-      </c>
+      <c r="A182" s="2"/>
       <c r="B182" s="1" t="s">
         <v>315</v>
       </c>
@@ -7142,9 +6800,7 @@
       <c r="Q182" s="1"/>
     </row>
     <row r="183" ht="23" customHeight="1" spans="1:17">
-      <c r="A183" s="2">
-        <v>179</v>
-      </c>
+      <c r="A183" s="2"/>
       <c r="B183" s="1" t="s">
         <v>318</v>
       </c>
@@ -7171,9 +6827,7 @@
       <c r="Q183" s="1"/>
     </row>
     <row r="184" ht="23" customHeight="1" spans="1:17">
-      <c r="A184" s="2">
-        <v>180</v>
-      </c>
+      <c r="A184" s="2"/>
       <c r="B184" s="1" t="s">
         <v>320</v>
       </c>
@@ -7200,9 +6854,7 @@
       <c r="Q184" s="1"/>
     </row>
     <row r="185" ht="23" customHeight="1" spans="1:17">
-      <c r="A185" s="2">
-        <v>181</v>
-      </c>
+      <c r="A185" s="2"/>
       <c r="B185" s="1" t="s">
         <v>322</v>
       </c>
@@ -7229,9 +6881,7 @@
       <c r="Q185" s="1"/>
     </row>
     <row r="186" ht="23" customHeight="1" spans="1:17">
-      <c r="A186" s="2">
-        <v>182</v>
-      </c>
+      <c r="A186" s="2"/>
       <c r="B186" s="1" t="s">
         <v>324</v>
       </c>
@@ -7258,9 +6908,7 @@
       <c r="Q186" s="1"/>
     </row>
     <row r="187" ht="23" customHeight="1" spans="1:17">
-      <c r="A187" s="2">
-        <v>183</v>
-      </c>
+      <c r="A187" s="2"/>
       <c r="B187" s="1" t="s">
         <v>326</v>
       </c>
@@ -7287,9 +6935,7 @@
       <c r="Q187" s="1"/>
     </row>
     <row r="188" ht="23" customHeight="1" spans="1:17">
-      <c r="A188" s="2">
-        <v>184</v>
-      </c>
+      <c r="A188" s="2"/>
       <c r="B188" s="1" t="s">
         <v>328</v>
       </c>
@@ -7316,9 +6962,7 @@
       <c r="Q188" s="1"/>
     </row>
     <row r="189" ht="23" customHeight="1" spans="1:17">
-      <c r="A189" s="2">
-        <v>185</v>
-      </c>
+      <c r="A189" s="2"/>
       <c r="B189" s="1" t="s">
         <v>330</v>
       </c>
@@ -7345,9 +6989,7 @@
       <c r="Q189" s="1"/>
     </row>
     <row r="190" ht="23" customHeight="1" spans="1:17">
-      <c r="A190" s="2">
-        <v>186</v>
-      </c>
+      <c r="A190" s="2"/>
       <c r="B190" s="1" t="s">
         <v>332</v>
       </c>
@@ -7374,9 +7016,7 @@
       <c r="Q190" s="1"/>
     </row>
     <row r="191" ht="23" customHeight="1" spans="1:17">
-      <c r="A191" s="2">
-        <v>187</v>
-      </c>
+      <c r="A191" s="2"/>
       <c r="B191" s="1" t="s">
         <v>334</v>
       </c>
@@ -7403,9 +7043,7 @@
       <c r="Q191" s="1"/>
     </row>
     <row r="192" ht="23" customHeight="1" spans="1:17">
-      <c r="A192" s="2">
-        <v>188</v>
-      </c>
+      <c r="A192" s="2"/>
       <c r="B192" s="1" t="s">
         <v>335</v>
       </c>
@@ -7432,9 +7070,7 @@
       <c r="Q192" s="1"/>
     </row>
     <row r="193" ht="23" customHeight="1" spans="1:17">
-      <c r="A193" s="2">
-        <v>189</v>
-      </c>
+      <c r="A193" s="2"/>
       <c r="B193" s="1" t="s">
         <v>337</v>
       </c>
@@ -7461,9 +7097,7 @@
       <c r="Q193" s="1"/>
     </row>
     <row r="194" ht="23" customHeight="1" spans="1:17">
-      <c r="A194" s="2">
-        <v>190</v>
-      </c>
+      <c r="A194" s="2"/>
       <c r="B194" s="1">
         <v>30776600</v>
       </c>
@@ -7490,9 +7124,7 @@
       <c r="Q194" s="1"/>
     </row>
     <row r="195" ht="23" customHeight="1" spans="1:17">
-      <c r="A195" s="2">
-        <v>191</v>
-      </c>
+      <c r="A195" s="2"/>
       <c r="B195" s="1" t="s">
         <v>340</v>
       </c>
@@ -7519,9 +7151,7 @@
       <c r="Q195" s="1"/>
     </row>
     <row r="196" ht="23" customHeight="1" spans="1:17">
-      <c r="A196" s="2">
-        <v>192</v>
-      </c>
+      <c r="A196" s="2"/>
       <c r="B196" s="1" t="s">
         <v>342</v>
       </c>
@@ -7548,9 +7178,7 @@
       <c r="Q196" s="1"/>
     </row>
     <row r="197" ht="23" customHeight="1" spans="1:17">
-      <c r="A197" s="2">
-        <v>193</v>
-      </c>
+      <c r="A197" s="2"/>
       <c r="B197" s="1" t="s">
         <v>344</v>
       </c>
@@ -7575,9 +7203,7 @@
       <c r="Q197" s="1"/>
     </row>
     <row r="198" ht="23" customHeight="1" spans="1:17">
-      <c r="A198" s="2">
-        <v>194</v>
-      </c>
+      <c r="A198" s="2"/>
       <c r="B198" s="1" t="s">
         <v>346</v>
       </c>
@@ -7602,9 +7228,7 @@
       <c r="Q198" s="1"/>
     </row>
     <row r="199" ht="23" customHeight="1" spans="1:17">
-      <c r="A199" s="2">
-        <v>195</v>
-      </c>
+      <c r="A199" s="2"/>
       <c r="B199" s="1" t="s">
         <v>348</v>
       </c>
@@ -7683,9 +7307,7 @@
       <c r="Q201" s="1"/>
     </row>
     <row r="202" ht="23" customHeight="1" spans="1:17">
-      <c r="A202" s="2">
-        <v>198</v>
-      </c>
+      <c r="A202" s="2"/>
       <c r="B202" s="1" t="s">
         <v>354</v>
       </c>
@@ -7710,9 +7332,7 @@
       <c r="Q202" s="1"/>
     </row>
     <row r="203" ht="23" customHeight="1" spans="1:17">
-      <c r="A203" s="2">
-        <v>199</v>
-      </c>
+      <c r="A203" s="2"/>
       <c r="B203" s="1" t="s">
         <v>356</v>
       </c>
@@ -7737,9 +7357,7 @@
       <c r="Q203" s="1"/>
     </row>
     <row r="204" ht="23" customHeight="1" spans="1:17">
-      <c r="A204" s="2">
-        <v>200</v>
-      </c>
+      <c r="A204" s="2"/>
       <c r="B204" s="1" t="s">
         <v>358</v>
       </c>
@@ -7766,9 +7384,7 @@
       <c r="Q204" s="1"/>
     </row>
     <row r="205" ht="23" customHeight="1" spans="1:17">
-      <c r="A205" s="2">
-        <v>201</v>
-      </c>
+      <c r="A205" s="2"/>
       <c r="B205" s="1">
         <v>17410470</v>
       </c>
@@ -7795,9 +7411,7 @@
       <c r="Q205" s="1"/>
     </row>
     <row r="206" ht="23" customHeight="1" spans="1:17">
-      <c r="A206" s="2">
-        <v>202</v>
-      </c>
+      <c r="A206" s="2"/>
       <c r="B206" s="1" t="s">
         <v>361</v>
       </c>
@@ -7824,9 +7438,7 @@
       <c r="Q206" s="1"/>
     </row>
     <row r="207" ht="23" customHeight="1" spans="1:17">
-      <c r="A207" s="2">
-        <v>203</v>
-      </c>
+      <c r="A207" s="2"/>
       <c r="B207" s="1" t="s">
         <v>363</v>
       </c>
@@ -7853,9 +7465,7 @@
       <c r="Q207" s="1"/>
     </row>
     <row r="208" ht="23" customHeight="1" spans="1:17">
-      <c r="A208" s="2">
-        <v>204</v>
-      </c>
+      <c r="A208" s="2"/>
       <c r="B208" s="1" t="s">
         <v>365</v>
       </c>
@@ -7882,9 +7492,7 @@
       <c r="Q208" s="1"/>
     </row>
     <row r="209" ht="23" customHeight="1" spans="1:17">
-      <c r="A209" s="2">
-        <v>205</v>
-      </c>
+      <c r="A209" s="2"/>
       <c r="B209" s="1" t="s">
         <v>367</v>
       </c>
@@ -7909,9 +7517,7 @@
       <c r="Q209" s="1"/>
     </row>
     <row r="210" ht="23" customHeight="1" spans="1:17">
-      <c r="A210" s="2">
-        <v>206</v>
-      </c>
+      <c r="A210" s="2"/>
       <c r="B210" s="1" t="s">
         <v>369</v>
       </c>
